--- a/assest/20240426-航天青岛一汽项目-项目标准需求协议表.xlsx
+++ b/assest/20240426-航天青岛一汽项目-项目标准需求协议表.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="681">
   <si>
     <t>同行者语音-车机项目需求接口协议</t>
   </si>
@@ -142,10 +142,11 @@
 4. 删除音量调整的部分参数，只留下media</t>
   </si>
   <si>
-    <t>v1.0.10</t>
-  </si>
-  <si>
-    <t>1. 添加</t>
+    <t>v1.1.1</t>
+  </si>
+  <si>
+    <t>1. 空调温度类型改回float
+2. 添加isForeground协助判断前台与后台媒体</t>
   </si>
   <si>
     <t>同行者接收的广播：com.txznet.adapter.recv</t>
@@ -1551,6 +1552,9 @@
     <t>radio.stop</t>
   </si>
   <si>
+    <t>媒体状态通知</t>
+  </si>
+  <si>
     <t>本地媒体前台</t>
   </si>
   <si>
@@ -1584,13 +1588,32 @@
     <t>media.type</t>
   </si>
   <si>
-    <t>music.online;酷我音乐
+    <t xml:space="preserve">music.online;酷我音乐
 music.bt;蓝牙音乐
 music.usb USB音乐
 radio;收音机
 video.local：本地视频  
 audio.online:在线电台(喜马拉雅)
-null：无焦点，关闭媒体</t>
+null：无焦点，关闭媒体 </t>
+  </si>
+  <si>
+    <t>foreground</t>
+  </si>
+  <si>
+    <t>默认true
+true:前台打开
+false:后台打开</t>
+  </si>
+  <si>
+    <t>播放器状态</t>
+  </si>
+  <si>
+    <t>media.status</t>
+  </si>
+  <si>
+    <t>是否有播放器打开
+true：有播放器开着
+false：播放器关闭</t>
   </si>
   <si>
     <t>空调状态通知</t>
@@ -3660,7 +3683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3730,13 +3753,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3795,12 +3830,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3940,11 +3969,14 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4348,8 +4380,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -4363,104 +4395,104 @@
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:9">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:9">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:4">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="77">
         <v>44047</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="78" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="77">
         <v>44358</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="186.9" customHeight="1" spans="1:4">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="80">
         <v>45175</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="81" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="73" customFormat="1" ht="363.9" customHeight="1" spans="1:4">
-      <c r="A6" s="77" t="s">
+    <row r="6" s="75" customFormat="1" ht="363.9" customHeight="1" spans="1:4">
+      <c r="A6" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="80">
         <v>45218</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="81" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="93" customHeight="1" spans="1:4">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="80">
         <v>45406</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="81" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4468,13 +4500,13 @@
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="80">
+      <c r="B8" s="82">
         <v>45456</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="84" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4482,69 +4514,69 @@
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="80">
+      <c r="B9" s="82">
         <v>45464</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="86" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" ht="78.9" customHeight="1" spans="1:4">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="88">
         <v>45467</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="90" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="52.05" customHeight="1" spans="1:4">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="88">
         <v>45482</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="92" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="123" customHeight="1" spans="1:4">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="88">
         <v>45483</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="94" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="78" customHeight="1" spans="1:4">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="93">
+      <c r="B13" s="95">
         <v>45492</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="97" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4563,8 +4595,8 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -4578,247 +4610,247 @@
   </cols>
   <sheetData>
     <row r="1" ht="59.25" customHeight="1" spans="1:5">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="73">
         <v>1000</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="73" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" ht="35.1" customHeight="1" spans="1:6">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="71">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="73">
         <v>1010</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="71"/>
+      <c r="F5" s="73"/>
     </row>
     <row r="6" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="71">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="73">
         <v>1020</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="73" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="71">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="73">
         <v>1030</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="73" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="71">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="73">
         <v>1040</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="73" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="71">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="73">
         <v>1050</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="73" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="71">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="73">
         <v>1060</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="73" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="71">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="73">
         <v>1080</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="73" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="71">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="73">
         <v>1091</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="73" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="71">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="73">
         <v>1096</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="73" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="71">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="73">
         <v>1097</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="73" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="71">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="73">
         <v>1110</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="73" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="71">
+      <c r="D16" s="73">
         <v>2000</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="73" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71">
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73">
         <v>2010</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="73" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73">
         <v>2020</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="73" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71">
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73">
         <v>2030</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="73" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71">
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73">
         <v>2040</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="73" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71">
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73">
         <v>2080</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71">
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73">
         <v>2400</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="73" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4842,7 +4874,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4852,7 +4884,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="280.5" customHeight="1" spans="1:1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4868,70 +4900,70 @@
   <sheetPr/>
   <dimension ref="A1:S217"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" style="42" customWidth="1"/>
-    <col min="2" max="2" width="13.8888888888889" style="42" customWidth="1"/>
-    <col min="3" max="3" width="37.8888888888889" style="42" customWidth="1"/>
-    <col min="4" max="4" width="9.88888888888889" style="42" customWidth="1"/>
-    <col min="5" max="5" width="26.7777777777778" style="42" customWidth="1"/>
-    <col min="6" max="6" width="8.66666666666667" style="42" customWidth="1"/>
-    <col min="7" max="7" width="10.6666666666667" style="42" customWidth="1"/>
-    <col min="8" max="8" width="29.3333333333333" style="42" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="9.44444444444444" style="46" customWidth="1"/>
+    <col min="2" max="2" width="13.8888888888889" style="46" customWidth="1"/>
+    <col min="3" max="3" width="37.8888888888889" style="46" customWidth="1"/>
+    <col min="4" max="4" width="9.88888888888889" style="46" customWidth="1"/>
+    <col min="5" max="5" width="26.7777777777778" style="46" customWidth="1"/>
+    <col min="6" max="6" width="8.66666666666667" style="46" customWidth="1"/>
+    <col min="7" max="7" width="10.6666666666667" style="46" customWidth="1"/>
+    <col min="8" max="8" width="29.3333333333333" style="46" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48">
         <v>1000</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="48" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="20">
         <v>1000</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -4954,13 +4986,13 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="32" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -4969,13 +5001,13 @@
       <c r="G4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="32" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="20" t="s">
         <v>71</v>
       </c>
@@ -4996,13 +5028,13 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="32" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -5011,91 +5043,91 @@
       <c r="G6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="46" t="s">
+      <c r="F7" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="46" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="49" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="48"/>
+      <c r="F10" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48">
         <v>1000</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="48" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5146,44 +5178,44 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44" t="s">
+      <c r="E15" s="48"/>
+      <c r="F15" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48">
         <v>1000</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44" t="s">
+      <c r="C16" s="48"/>
+      <c r="D16" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="48" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5337,7 +5369,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" s="40" customFormat="1" customHeight="1" spans="1:9">
+    <row r="24" s="44" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20" t="s">
@@ -5350,9 +5382,9 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="43"/>
-    </row>
-    <row r="25" s="40" customFormat="1" customHeight="1" spans="1:9">
+      <c r="I24" s="47"/>
+    </row>
+    <row r="25" s="44" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20" t="s">
@@ -5367,9 +5399,9 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="43"/>
-    </row>
-    <row r="26" s="40" customFormat="1" customHeight="1" spans="1:9">
+      <c r="I25" s="47"/>
+    </row>
+    <row r="26" s="44" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -5388,47 +5420,47 @@
       <c r="H26" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="43"/>
+      <c r="I26" s="47"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44" t="s">
+      <c r="E28" s="48"/>
+      <c r="F28" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48">
         <v>1000</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44" t="s">
+      <c r="C29" s="48"/>
+      <c r="D29" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="48" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5472,7 +5504,7 @@
       <c r="G31" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="32" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5552,7 +5584,7 @@
       <c r="G35" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="H35" s="32" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5694,7 +5726,7 @@
       <c r="G42" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H42" s="28" t="s">
+      <c r="H42" s="32" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5754,7 +5786,7 @@
       <c r="G45" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H45" s="28" t="s">
+      <c r="H45" s="32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5814,7 +5846,7 @@
       <c r="G48" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H48" s="28" t="s">
+      <c r="H48" s="32" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5837,44 +5869,44 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44" t="s">
+      <c r="E51" s="48"/>
+      <c r="F51" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
     </row>
     <row r="52" customHeight="1" spans="1:8">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44">
+      <c r="A52" s="48"/>
+      <c r="B52" s="48">
         <v>1000</v>
       </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44" t="s">
+      <c r="C52" s="48"/>
+      <c r="D52" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G52" s="44" t="s">
+      <c r="G52" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="44" t="s">
+      <c r="H52" s="48" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5975,7 +6007,7 @@
       <c r="D57" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="32" t="s">
         <v>67</v>
       </c>
       <c r="F57" s="20" t="s">
@@ -5984,83 +6016,83 @@
       <c r="G57" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="H57" s="32" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="58" ht="52.95" customHeight="1" spans="1:8">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="49" t="s">
+      <c r="D58" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="50" t="s">
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="52" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="59" ht="52.95" customHeight="1" spans="1:8">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E59" s="49" t="s">
+      <c r="D59" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="48" t="s">
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="50" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="60" ht="52.95" customHeight="1" spans="1:8">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" s="49" t="s">
+      <c r="D60" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" s="51" t="s">
+      <c r="F60" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" s="53" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="49" t="s">
+      <c r="D61" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49" t="s">
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6175,44 +6207,44 @@
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:8">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44" t="s">
+      <c r="E68" s="48"/>
+      <c r="F68" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
     </row>
     <row r="69" customHeight="1" spans="1:8">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44">
+      <c r="A69" s="48"/>
+      <c r="B69" s="48">
         <v>1000</v>
       </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44" t="s">
+      <c r="C69" s="48"/>
+      <c r="D69" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E69" s="44" t="s">
+      <c r="E69" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F69" s="44" t="s">
+      <c r="F69" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="44" t="s">
+      <c r="G69" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="44" t="s">
+      <c r="H69" s="48" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6319,7 +6351,7 @@
       <c r="D75" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="28" t="s">
+      <c r="E75" s="32" t="s">
         <v>67</v>
       </c>
       <c r="F75" s="20" t="s">
@@ -6328,7 +6360,7 @@
       <c r="G75" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H75" s="28" t="s">
+      <c r="H75" s="32" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6361,7 +6393,7 @@
       <c r="D77" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="32" t="s">
         <v>67</v>
       </c>
       <c r="F77" s="20" t="s">
@@ -6370,7 +6402,7 @@
       <c r="G77" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H77" s="28" t="s">
+      <c r="H77" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6383,7 +6415,7 @@
       <c r="D78" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="32" t="s">
         <v>177</v>
       </c>
       <c r="F78" s="20" t="s">
@@ -6403,7 +6435,7 @@
         <v>178</v>
       </c>
       <c r="D79" s="20"/>
-      <c r="E79" s="28" t="s">
+      <c r="E79" s="32" t="s">
         <v>179</v>
       </c>
       <c r="F79" s="20" t="s">
@@ -6423,7 +6455,7 @@
         <v>180</v>
       </c>
       <c r="D80" s="20"/>
-      <c r="E80" s="28" t="s">
+      <c r="E80" s="32" t="s">
         <v>181</v>
       </c>
       <c r="F80" s="20" t="s">
@@ -6443,7 +6475,7 @@
         <v>182</v>
       </c>
       <c r="D81" s="20"/>
-      <c r="E81" s="28" t="s">
+      <c r="E81" s="32" t="s">
         <v>183</v>
       </c>
       <c r="F81" s="20" t="s">
@@ -6463,7 +6495,7 @@
         <v>184</v>
       </c>
       <c r="D82" s="20"/>
-      <c r="E82" s="28" t="s">
+      <c r="E82" s="32" t="s">
         <v>185</v>
       </c>
       <c r="F82" s="20" t="s">
@@ -6483,7 +6515,7 @@
         <v>186</v>
       </c>
       <c r="D83" s="20"/>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="32" t="s">
         <v>187</v>
       </c>
       <c r="F83" s="20" t="s">
@@ -6503,7 +6535,7 @@
         <v>188</v>
       </c>
       <c r="D84" s="20"/>
-      <c r="E84" s="28" t="s">
+      <c r="E84" s="32" t="s">
         <v>189</v>
       </c>
       <c r="F84" s="20" t="s">
@@ -6523,7 +6555,7 @@
         <v>190</v>
       </c>
       <c r="D85" s="20"/>
-      <c r="E85" s="28" t="s">
+      <c r="E85" s="32" t="s">
         <v>191</v>
       </c>
       <c r="F85" s="20" t="s">
@@ -6543,7 +6575,7 @@
         <v>192</v>
       </c>
       <c r="D86" s="20"/>
-      <c r="E86" s="28" t="s">
+      <c r="E86" s="32" t="s">
         <v>193</v>
       </c>
       <c r="F86" s="20" t="s">
@@ -6563,7 +6595,7 @@
         <v>194</v>
       </c>
       <c r="D87" s="20"/>
-      <c r="E87" s="28" t="s">
+      <c r="E87" s="32" t="s">
         <v>195</v>
       </c>
       <c r="F87" s="20" t="s">
@@ -6579,63 +6611,63 @@
     <row r="88" customHeight="1" spans="1:8">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="54" t="s">
         <v>196</v>
       </c>
       <c r="D88" s="20"/>
-      <c r="E88" s="53" t="s">
+      <c r="E88" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52" t="s">
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:8">
-      <c r="A90" s="44" t="s">
+      <c r="A90" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C90" s="44" t="s">
+      <c r="C90" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D90" s="44" t="s">
+      <c r="D90" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44" t="s">
+      <c r="E90" s="48"/>
+      <c r="F90" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
     </row>
     <row r="91" customHeight="1" spans="1:8">
-      <c r="A91" s="44"/>
-      <c r="B91" s="44">
+      <c r="A91" s="48"/>
+      <c r="B91" s="48">
         <v>1000</v>
       </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44" t="s">
+      <c r="C91" s="48"/>
+      <c r="D91" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E91" s="44" t="s">
+      <c r="E91" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F91" s="44" t="s">
+      <c r="F91" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G91" s="44" t="s">
+      <c r="G91" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H91" s="44" t="s">
+      <c r="H91" s="48" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:8">
-      <c r="A92" s="54" t="s">
+      <c r="A92" s="56" t="s">
         <v>38</v>
       </c>
       <c r="B92" s="20">
@@ -6644,91 +6676,91 @@
       <c r="C92" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D92" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E92" s="52" t="s">
+      <c r="D92" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="F92" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G92" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H92" s="53" t="s">
+      <c r="F92" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G92" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="H92" s="55" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="93" ht="180" customHeight="1" spans="1:8">
-      <c r="A93" s="55"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="52" t="s">
+      <c r="D93" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="E93" s="53" t="s">
+      <c r="E93" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="F93" s="52" t="s">
+      <c r="F93" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="G93" s="52" t="s">
+      <c r="G93" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="H93" s="53" t="s">
+      <c r="H93" s="55" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:8">
-      <c r="A94" s="55"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D94" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E94" s="52" t="s">
+      <c r="D94" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="F94" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G94" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H94" s="52" t="s">
+      <c r="F94" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="H94" s="54" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95" ht="71.25" customHeight="1" spans="1:8">
-      <c r="A95" s="55"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
-      <c r="D95" s="52" t="s">
+      <c r="D95" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="E95" s="53" t="s">
+      <c r="E95" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="F95" s="52" t="s">
+      <c r="F95" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="52" t="s">
+      <c r="G95" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="H95" s="53" t="s">
+      <c r="H95" s="55" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:8">
-      <c r="A96" s="55"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D96" s="56" t="s">
         <v>63</v>
       </c>
       <c r="E96" s="20" t="s">
@@ -6745,12 +6777,12 @@
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:8">
-      <c r="A97" s="55"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D97" s="55"/>
+      <c r="D97" s="57"/>
       <c r="E97" s="20" t="s">
         <v>209</v>
       </c>
@@ -6765,12 +6797,12 @@
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:8">
-      <c r="A98" s="55"/>
+      <c r="A98" s="57"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="55"/>
+      <c r="D98" s="57"/>
       <c r="E98" s="20" t="s">
         <v>211</v>
       </c>
@@ -6785,12 +6817,12 @@
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:8">
-      <c r="A99" s="55"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D99" s="55"/>
+      <c r="D99" s="57"/>
       <c r="E99" s="20" t="s">
         <v>213</v>
       </c>
@@ -6805,12 +6837,12 @@
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:8">
-      <c r="A100" s="55"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D100" s="55"/>
+      <c r="D100" s="57"/>
       <c r="E100" s="20" t="s">
         <v>215</v>
       </c>
@@ -6825,12 +6857,12 @@
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:8">
-      <c r="A101" s="55"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="55"/>
+      <c r="D101" s="57"/>
       <c r="E101" s="20" t="s">
         <v>217</v>
       </c>
@@ -6845,12 +6877,12 @@
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:8">
-      <c r="A102" s="55"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="D102" s="55"/>
+      <c r="D102" s="57"/>
       <c r="E102" s="20" t="s">
         <v>219</v>
       </c>
@@ -6865,12 +6897,12 @@
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:8">
-      <c r="A103" s="55"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D103" s="56"/>
+      <c r="D103" s="58"/>
       <c r="E103" s="20" t="s">
         <v>221</v>
       </c>
@@ -6885,13 +6917,13 @@
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:8">
-      <c r="A104" s="55"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="20"/>
-      <c r="C104" s="57" t="s">
+      <c r="C104" s="59" t="s">
         <v>222</v>
       </c>
       <c r="D104" s="20"/>
-      <c r="E104" s="26" t="s">
+      <c r="E104" s="30" t="s">
         <v>223</v>
       </c>
       <c r="F104" s="20"/>
@@ -6899,124 +6931,124 @@
       <c r="H104" s="20"/>
     </row>
     <row r="105" customHeight="1" spans="1:8">
-      <c r="A105" s="55"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="20"/>
-      <c r="C105" s="57" t="s">
+      <c r="C105" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="D105" s="44"/>
-      <c r="E105" s="26" t="s">
+      <c r="D105" s="48"/>
+      <c r="E105" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
     </row>
     <row r="106" customHeight="1" spans="1:8">
-      <c r="A106" s="55"/>
+      <c r="A106" s="57"/>
       <c r="B106" s="20"/>
-      <c r="C106" s="57" t="s">
+      <c r="C106" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="D106" s="44"/>
-      <c r="E106" s="26" t="s">
+      <c r="D106" s="48"/>
+      <c r="E106" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="F106" s="44"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="44"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
     </row>
     <row r="107" customHeight="1" spans="1:8">
-      <c r="A107" s="55"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="20"/>
-      <c r="C107" s="57" t="s">
+      <c r="C107" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="D107" s="44"/>
-      <c r="E107" s="26" t="s">
+      <c r="D107" s="48"/>
+      <c r="E107" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
     </row>
     <row r="108" customHeight="1" spans="1:8">
-      <c r="A108" s="55"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="20"/>
-      <c r="C108" s="57" t="s">
+      <c r="C108" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="D108" s="44"/>
-      <c r="E108" s="26" t="s">
+      <c r="D108" s="48"/>
+      <c r="E108" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="44"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
     </row>
     <row r="109" customHeight="1" spans="1:8">
-      <c r="A109" s="56"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="20"/>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="D109" s="44"/>
-      <c r="E109" s="26" t="s">
+      <c r="D109" s="48"/>
+      <c r="E109" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="44"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
     </row>
     <row r="110" customHeight="1" spans="1:8">
-      <c r="A110" s="59"/>
-      <c r="B110" s="59"/>
-      <c r="C110" s="60"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="59"/>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="59"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="61"/>
+      <c r="H110" s="61"/>
     </row>
     <row r="111" customHeight="1" spans="1:8">
-      <c r="A111" s="44" t="s">
+      <c r="A111" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B111" s="44" t="s">
+      <c r="B111" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C111" s="44" t="s">
+      <c r="C111" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D111" s="44" t="s">
+      <c r="D111" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E111" s="44"/>
-      <c r="F111" s="44" t="s">
+      <c r="E111" s="48"/>
+      <c r="F111" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G111" s="44"/>
-      <c r="H111" s="44"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
     </row>
     <row r="112" customHeight="1" spans="1:8">
-      <c r="A112" s="44"/>
-      <c r="B112" s="44">
+      <c r="A112" s="48"/>
+      <c r="B112" s="48">
         <v>1000</v>
       </c>
-      <c r="C112" s="44"/>
-      <c r="D112" s="44" t="s">
+      <c r="C112" s="48"/>
+      <c r="D112" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E112" s="44" t="s">
+      <c r="E112" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F112" s="44" t="s">
+      <c r="F112" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G112" s="44" t="s">
+      <c r="G112" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H112" s="44" t="s">
+      <c r="H112" s="48" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7050,15 +7082,15 @@
       <c r="A114" s="20"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
-      <c r="D114" s="52" t="s">
+      <c r="D114" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="E114" s="52"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="52" t="s">
+      <c r="E114" s="54"/>
+      <c r="F114" s="54"/>
+      <c r="G114" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="H114" s="53" t="s">
+      <c r="H114" s="55" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7088,15 +7120,15 @@
       <c r="A116" s="20"/>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
-      <c r="D116" s="52" t="s">
+      <c r="D116" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="E116" s="52"/>
-      <c r="F116" s="52"/>
-      <c r="G116" s="52" t="s">
+      <c r="E116" s="54"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="H116" s="52" t="s">
+      <c r="H116" s="54" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7174,7 +7206,7 @@
       <c r="E120" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F120" s="61" t="s">
+      <c r="F120" s="63" t="s">
         <v>85</v>
       </c>
       <c r="G120" s="20" t="s">
@@ -7183,12 +7215,12 @@
       <c r="H120" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="J120" s="42"/>
-      <c r="K120" s="42"/>
-      <c r="L120" s="42"/>
-      <c r="M120" s="42"/>
-      <c r="N120" s="42"/>
-      <c r="O120" s="42"/>
+      <c r="J120" s="46"/>
+      <c r="K120" s="46"/>
+      <c r="L120" s="46"/>
+      <c r="M120" s="46"/>
+      <c r="N120" s="46"/>
+      <c r="O120" s="46"/>
     </row>
     <row r="121" ht="36.9" customHeight="1" spans="1:15">
       <c r="A121" s="20"/>
@@ -7202,15 +7234,15 @@
       <c r="G121" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H121" s="28" t="s">
+      <c r="H121" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="J121" s="42"/>
-      <c r="K121" s="42"/>
-      <c r="L121" s="42"/>
-      <c r="M121" s="42"/>
-      <c r="N121" s="42"/>
-      <c r="O121" s="42"/>
+      <c r="J121" s="46"/>
+      <c r="K121" s="46"/>
+      <c r="L121" s="46"/>
+      <c r="M121" s="46"/>
+      <c r="N121" s="46"/>
+      <c r="O121" s="46"/>
     </row>
     <row r="122" customHeight="1" spans="1:15">
       <c r="A122" s="20"/>
@@ -7233,12 +7265,12 @@
       <c r="H122" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J122" s="42"/>
-      <c r="K122" s="42"/>
-      <c r="L122" s="42"/>
-      <c r="M122" s="42"/>
-      <c r="N122" s="42"/>
-      <c r="O122" s="42"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="46"/>
+      <c r="L122" s="46"/>
+      <c r="M122" s="46"/>
+      <c r="N122" s="46"/>
+      <c r="O122" s="46"/>
     </row>
     <row r="123" customHeight="1" spans="1:8">
       <c r="A123" s="20"/>
@@ -7250,7 +7282,7 @@
       <c r="E123" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F123" s="61" t="s">
+      <c r="F123" s="63" t="s">
         <v>85</v>
       </c>
       <c r="G123" s="20" t="s">
@@ -7308,7 +7340,7 @@
       <c r="E126" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F126" s="61" t="s">
+      <c r="F126" s="63" t="s">
         <v>85</v>
       </c>
       <c r="G126" s="20" t="s">
@@ -7366,7 +7398,7 @@
       <c r="G129" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H129" s="28" t="s">
+      <c r="H129" s="32" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7486,37 +7518,37 @@
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
     </row>
-    <row r="136" s="41" customFormat="1" hidden="1" customHeight="1" spans="1:8">
+    <row r="136" s="45" customFormat="1" hidden="1" customHeight="1" spans="1:8">
       <c r="A136" s="20"/>
       <c r="B136" s="20"/>
-      <c r="C136" s="62" t="s">
+      <c r="C136" s="64" t="s">
         <v>270</v>
       </c>
       <c r="D136" s="20"/>
-      <c r="E136" s="62" t="s">
+      <c r="E136" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="F136" s="62"/>
-      <c r="G136" s="62"/>
-      <c r="H136" s="62"/>
+      <c r="F136" s="64"/>
+      <c r="G136" s="64"/>
+      <c r="H136" s="64"/>
     </row>
     <row r="137" customHeight="1" spans="1:8">
       <c r="A137" s="20"/>
       <c r="B137" s="20"/>
-      <c r="C137" s="63" t="s">
+      <c r="C137" s="65" t="s">
         <v>272</v>
       </c>
       <c r="D137" s="20"/>
-      <c r="E137" s="63" t="s">
+      <c r="E137" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="F137" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="G137" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="H137" s="63" t="s">
+      <c r="F137" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G137" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="H137" s="65" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7737,269 +7769,269 @@
     <row r="149" customHeight="1" spans="1:8">
       <c r="A149" s="20"/>
       <c r="B149" s="20"/>
-      <c r="C149" s="63" t="s">
+      <c r="C149" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="D149" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="E149" s="29" t="s">
+      <c r="D149" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E149" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="F149" s="63"/>
-      <c r="G149" s="63"/>
-      <c r="H149" s="63"/>
+      <c r="F149" s="65"/>
+      <c r="G149" s="65"/>
+      <c r="H149" s="65"/>
     </row>
     <row r="150" customHeight="1" spans="1:8">
       <c r="A150" s="20"/>
       <c r="B150" s="20"/>
-      <c r="C150" s="63" t="s">
+      <c r="C150" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="D150" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="E150" s="63" t="s">
+      <c r="D150" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E150" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="F150" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="G150" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="H150" s="63" t="s">
+      <c r="F150" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G150" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="H150" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:8">
       <c r="A151" s="20"/>
       <c r="B151" s="20"/>
-      <c r="C151" s="63"/>
-      <c r="D151" s="63" t="s">
+      <c r="C151" s="65"/>
+      <c r="D151" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="E151" s="63" t="s">
+      <c r="E151" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F151" s="63" t="s">
+      <c r="F151" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="G151" s="63" t="s">
+      <c r="G151" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="H151" s="64" t="s">
+      <c r="H151" s="66" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:8">
       <c r="A152" s="20"/>
       <c r="B152" s="20"/>
-      <c r="C152" s="63"/>
-      <c r="D152" s="63"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="63"/>
-      <c r="G152" s="63"/>
-      <c r="H152" s="63"/>
+      <c r="C152" s="65"/>
+      <c r="D152" s="65"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="65"/>
     </row>
     <row r="153" customHeight="1" spans="1:8">
       <c r="A153" s="20"/>
       <c r="B153" s="20"/>
-      <c r="C153" s="63" t="s">
+      <c r="C153" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="D153" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="E153" s="63" t="s">
+      <c r="D153" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E153" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="F153" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="G153" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="H153" s="63" t="s">
+      <c r="F153" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G153" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="H153" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:8">
       <c r="A154" s="20"/>
       <c r="B154" s="20"/>
-      <c r="C154" s="63"/>
-      <c r="D154" s="63" t="s">
+      <c r="C154" s="65"/>
+      <c r="D154" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="E154" s="63" t="s">
+      <c r="E154" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F154" s="63" t="s">
+      <c r="F154" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G154" s="63" t="s">
+      <c r="G154" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="H154" s="63" t="s">
+      <c r="H154" s="65" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:11">
       <c r="A155" s="20"/>
       <c r="B155" s="20"/>
-      <c r="C155" s="63"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="63"/>
-      <c r="G155" s="63"/>
-      <c r="H155" s="63"/>
-      <c r="K155" s="42"/>
+      <c r="C155" s="65"/>
+      <c r="D155" s="65"/>
+      <c r="E155" s="65"/>
+      <c r="F155" s="65"/>
+      <c r="G155" s="65"/>
+      <c r="H155" s="65"/>
+      <c r="K155" s="46"/>
     </row>
     <row r="156" customHeight="1" spans="1:8">
       <c r="A156" s="20"/>
       <c r="B156" s="20"/>
-      <c r="C156" s="63" t="s">
+      <c r="C156" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="D156" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="E156" s="63" t="s">
+      <c r="D156" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E156" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="F156" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="G156" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="H156" s="63" t="s">
+      <c r="F156" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G156" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="H156" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:8">
       <c r="A157" s="20"/>
       <c r="B157" s="20"/>
-      <c r="C157" s="63"/>
-      <c r="D157" s="63" t="s">
+      <c r="C157" s="65"/>
+      <c r="D157" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="E157" s="63" t="s">
+      <c r="E157" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F157" s="63" t="s">
+      <c r="F157" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G157" s="63" t="s">
+      <c r="G157" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="H157" s="63" t="s">
+      <c r="H157" s="65" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:8">
       <c r="A158" s="20"/>
       <c r="B158" s="20"/>
-      <c r="C158" s="63"/>
-      <c r="D158" s="63"/>
-      <c r="E158" s="63"/>
-      <c r="F158" s="63"/>
-      <c r="G158" s="63"/>
-      <c r="H158" s="63"/>
+      <c r="C158" s="65"/>
+      <c r="D158" s="65"/>
+      <c r="E158" s="65"/>
+      <c r="F158" s="65"/>
+      <c r="G158" s="65"/>
+      <c r="H158" s="65"/>
     </row>
     <row r="159" customHeight="1" spans="1:8">
       <c r="A159" s="20"/>
       <c r="B159" s="20"/>
-      <c r="C159" s="63" t="s">
+      <c r="C159" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="D159" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="E159" s="63" t="s">
+      <c r="D159" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E159" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="F159" s="65"/>
-      <c r="G159" s="65"/>
-      <c r="H159" s="65"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="67"/>
+      <c r="H159" s="67"/>
     </row>
     <row r="160" customHeight="1" spans="1:8">
       <c r="A160" s="20"/>
       <c r="B160" s="20"/>
-      <c r="C160" s="63"/>
-      <c r="D160" s="63" t="s">
+      <c r="C160" s="65"/>
+      <c r="D160" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="E160" s="63" t="s">
+      <c r="E160" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F160" s="63" t="s">
+      <c r="F160" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G160" s="63" t="s">
+      <c r="G160" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="H160" s="63" t="s">
+      <c r="H160" s="65" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:8">
       <c r="A161" s="20"/>
       <c r="B161" s="20"/>
-      <c r="C161" s="63"/>
-      <c r="D161" s="63"/>
-      <c r="E161" s="63"/>
-      <c r="F161" s="63"/>
-      <c r="G161" s="63"/>
-      <c r="H161" s="63"/>
+      <c r="C161" s="65"/>
+      <c r="D161" s="65"/>
+      <c r="E161" s="65"/>
+      <c r="F161" s="65"/>
+      <c r="G161" s="65"/>
+      <c r="H161" s="65"/>
     </row>
     <row r="162" customHeight="1" spans="1:8">
-      <c r="A162" s="59"/>
-      <c r="B162" s="59"/>
-      <c r="C162" s="59"/>
-      <c r="D162" s="59"/>
-      <c r="E162" s="59"/>
-      <c r="F162" s="59"/>
-      <c r="G162" s="59"/>
-      <c r="H162" s="59"/>
+      <c r="A162" s="61"/>
+      <c r="B162" s="61"/>
+      <c r="C162" s="61"/>
+      <c r="D162" s="61"/>
+      <c r="E162" s="61"/>
+      <c r="F162" s="61"/>
+      <c r="G162" s="61"/>
+      <c r="H162" s="61"/>
     </row>
     <row r="163" customHeight="1" spans="1:8">
-      <c r="A163" s="44" t="s">
+      <c r="A163" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B163" s="44" t="s">
+      <c r="B163" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C163" s="44" t="s">
+      <c r="C163" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="44" t="s">
+      <c r="D163" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E163" s="44"/>
-      <c r="F163" s="44" t="s">
+      <c r="E163" s="48"/>
+      <c r="F163" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G163" s="44"/>
-      <c r="H163" s="44"/>
+      <c r="G163" s="48"/>
+      <c r="H163" s="48"/>
     </row>
     <row r="164" customHeight="1" spans="1:8">
-      <c r="A164" s="44"/>
-      <c r="B164" s="44"/>
-      <c r="C164" s="44"/>
-      <c r="D164" s="44" t="s">
+      <c r="A164" s="48"/>
+      <c r="B164" s="48"/>
+      <c r="C164" s="48"/>
+      <c r="D164" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E164" s="44" t="s">
+      <c r="E164" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F164" s="44" t="s">
+      <c r="F164" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G164" s="44" t="s">
+      <c r="G164" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H164" s="44" t="s">
+      <c r="H164" s="48" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8045,7 +8077,7 @@
       <c r="G166" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H166" s="28" t="s">
+      <c r="H166" s="32" t="s">
         <v>305</v>
       </c>
     </row>
@@ -8103,7 +8135,7 @@
       </c>
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
-      <c r="H169" s="28"/>
+      <c r="H169" s="32"/>
     </row>
     <row r="170" ht="38.1" customHeight="1" spans="1:8">
       <c r="A170" s="20"/>
@@ -8117,7 +8149,7 @@
       </c>
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
-      <c r="H170" s="28"/>
+      <c r="H170" s="32"/>
     </row>
     <row r="171" ht="38.1" customHeight="1" spans="1:8">
       <c r="A171" s="20"/>
@@ -8131,7 +8163,7 @@
       </c>
       <c r="F171" s="20"/>
       <c r="G171" s="20"/>
-      <c r="H171" s="28"/>
+      <c r="H171" s="32"/>
     </row>
     <row r="172" ht="38.1" customHeight="1" spans="1:8">
       <c r="A172" s="20"/>
@@ -8145,7 +8177,7 @@
       </c>
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
-      <c r="H172" s="28"/>
+      <c r="H172" s="32"/>
     </row>
     <row r="173" ht="38.1" customHeight="1" spans="1:8">
       <c r="A173" s="20"/>
@@ -8159,7 +8191,7 @@
       </c>
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
-      <c r="H173" s="28"/>
+      <c r="H173" s="32"/>
     </row>
     <row r="174" ht="38.1" customHeight="1" spans="1:8">
       <c r="A174" s="20"/>
@@ -8173,325 +8205,325 @@
       </c>
       <c r="F174" s="20"/>
       <c r="G174" s="20"/>
-      <c r="H174" s="28"/>
+      <c r="H174" s="32"/>
     </row>
     <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="59"/>
-      <c r="B175" s="59"/>
-      <c r="C175" s="59"/>
-      <c r="D175" s="59"/>
-      <c r="E175" s="59"/>
-      <c r="F175" s="59"/>
-      <c r="G175" s="59"/>
-      <c r="H175" s="59"/>
+      <c r="A175" s="61"/>
+      <c r="B175" s="61"/>
+      <c r="C175" s="61"/>
+      <c r="D175" s="61"/>
+      <c r="E175" s="61"/>
+      <c r="F175" s="61"/>
+      <c r="G175" s="61"/>
+      <c r="H175" s="61"/>
     </row>
     <row r="176" customHeight="1" spans="1:8">
-      <c r="A176" s="44" t="s">
+      <c r="A176" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B176" s="44" t="s">
+      <c r="B176" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C176" s="44" t="s">
+      <c r="C176" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D176" s="44" t="s">
+      <c r="D176" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E176" s="44"/>
-      <c r="F176" s="44" t="s">
+      <c r="E176" s="48"/>
+      <c r="F176" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G176" s="44"/>
-      <c r="H176" s="44"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48"/>
     </row>
     <row r="177" customHeight="1" spans="1:8">
-      <c r="A177" s="44"/>
-      <c r="B177" s="44"/>
-      <c r="C177" s="44"/>
-      <c r="D177" s="44" t="s">
+      <c r="A177" s="48"/>
+      <c r="B177" s="48"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E177" s="44" t="s">
+      <c r="E177" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F177" s="44" t="s">
+      <c r="F177" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G177" s="44" t="s">
+      <c r="G177" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H177" s="44" t="s">
+      <c r="H177" s="48" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="1:8">
-      <c r="A178" s="66" t="s">
+      <c r="A178" s="68" t="s">
         <v>320</v>
       </c>
-      <c r="B178" s="66">
+      <c r="B178" s="68">
         <v>1096</v>
       </c>
-      <c r="C178" s="66" t="s">
+      <c r="C178" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="D178" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="E178" s="66" t="s">
+      <c r="D178" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E178" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="F178" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="G178" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="H178" s="66" t="s">
+      <c r="F178" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="G178" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="H178" s="68" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="1:8">
-      <c r="A179" s="66"/>
-      <c r="B179" s="66"/>
-      <c r="C179" s="66" t="s">
+      <c r="A179" s="68"/>
+      <c r="B179" s="68"/>
+      <c r="C179" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="D179" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="E179" s="66" t="s">
+      <c r="D179" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E179" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="F179" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="G179" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="H179" s="66" t="s">
+      <c r="F179" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="G179" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="H179" s="68" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:8">
-      <c r="A180" s="59"/>
-      <c r="B180" s="59"/>
-      <c r="C180" s="59"/>
-      <c r="D180" s="59"/>
-      <c r="E180" s="59"/>
-      <c r="F180" s="59"/>
-      <c r="G180" s="59"/>
-      <c r="H180" s="59"/>
+      <c r="A180" s="61"/>
+      <c r="B180" s="61"/>
+      <c r="C180" s="61"/>
+      <c r="D180" s="61"/>
+      <c r="E180" s="61"/>
+      <c r="F180" s="61"/>
+      <c r="G180" s="61"/>
+      <c r="H180" s="61"/>
     </row>
     <row r="181" customHeight="1" spans="1:8">
-      <c r="A181" s="59"/>
-      <c r="B181" s="59"/>
-      <c r="C181" s="59"/>
-      <c r="D181" s="59"/>
-      <c r="E181" s="59"/>
-      <c r="F181" s="59"/>
-      <c r="G181" s="59"/>
-      <c r="H181" s="59"/>
-    </row>
-    <row r="182" s="40" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A182" s="44" t="s">
+      <c r="A181" s="61"/>
+      <c r="B181" s="61"/>
+      <c r="C181" s="61"/>
+      <c r="D181" s="61"/>
+      <c r="E181" s="61"/>
+      <c r="F181" s="61"/>
+      <c r="G181" s="61"/>
+      <c r="H181" s="61"/>
+    </row>
+    <row r="182" s="44" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A182" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B182" s="44" t="s">
+      <c r="B182" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C182" s="44" t="s">
+      <c r="C182" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D182" s="44" t="s">
+      <c r="D182" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E182" s="44"/>
-      <c r="F182" s="44" t="s">
+      <c r="E182" s="48"/>
+      <c r="F182" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G182" s="44"/>
-      <c r="H182" s="44"/>
-    </row>
-    <row r="183" s="40" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A183" s="44"/>
-      <c r="B183" s="44"/>
-      <c r="C183" s="44"/>
-      <c r="D183" s="44" t="s">
+      <c r="G182" s="48"/>
+      <c r="H182" s="48"/>
+    </row>
+    <row r="183" s="44" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A183" s="48"/>
+      <c r="B183" s="48"/>
+      <c r="C183" s="48"/>
+      <c r="D183" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E183" s="44" t="s">
+      <c r="E183" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F183" s="44" t="s">
+      <c r="F183" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G183" s="44" t="s">
+      <c r="G183" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H183" s="44" t="s">
+      <c r="H183" s="48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" s="40" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A184" s="30" t="s">
+    <row r="184" s="44" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A184" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B184" s="29">
+      <c r="B184" s="33">
         <v>1097</v>
       </c>
-      <c r="C184" s="29" t="s">
+      <c r="C184" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="D184" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E184" s="29" t="s">
+      <c r="D184" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E184" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="F184" s="29"/>
-      <c r="G184" s="29"/>
-      <c r="H184" s="29"/>
-    </row>
-    <row r="185" s="40" customFormat="1" ht="54" customHeight="1" spans="1:8">
-      <c r="A185" s="30"/>
-      <c r="B185" s="29"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="29" t="s">
+      <c r="F184" s="33"/>
+      <c r="G184" s="33"/>
+      <c r="H184" s="33"/>
+    </row>
+    <row r="185" s="44" customFormat="1" ht="54" customHeight="1" spans="1:8">
+      <c r="A185" s="34"/>
+      <c r="B185" s="33"/>
+      <c r="C185" s="33"/>
+      <c r="D185" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E185" s="29" t="s">
+      <c r="E185" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="F185" s="29" t="s">
+      <c r="F185" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G185" s="29" t="s">
+      <c r="G185" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="H185" s="30" t="s">
+      <c r="H185" s="34" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="186" s="40" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A186" s="30"/>
-      <c r="B186" s="29"/>
-      <c r="C186" s="29" t="s">
+    <row r="186" s="44" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A186" s="34"/>
+      <c r="B186" s="33"/>
+      <c r="C186" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="D186" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E186" s="29" t="s">
+      <c r="D186" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E186" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="F186" s="29"/>
-      <c r="G186" s="29"/>
-      <c r="H186" s="29"/>
-    </row>
-    <row r="187" s="40" customFormat="1" ht="74.1" customHeight="1" spans="1:8">
-      <c r="A187" s="30"/>
-      <c r="B187" s="29"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="29" t="s">
+      <c r="F186" s="33"/>
+      <c r="G186" s="33"/>
+      <c r="H186" s="33"/>
+    </row>
+    <row r="187" s="44" customFormat="1" ht="74.1" customHeight="1" spans="1:8">
+      <c r="A187" s="34"/>
+      <c r="B187" s="33"/>
+      <c r="C187" s="33"/>
+      <c r="D187" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E187" s="29" t="s">
+      <c r="E187" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="F187" s="29" t="s">
+      <c r="F187" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G187" s="29" t="s">
+      <c r="G187" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="H187" s="30" t="s">
+      <c r="H187" s="34" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="188" s="40" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A188" s="30"/>
-      <c r="B188" s="29"/>
-      <c r="C188" s="29" t="s">
+    <row r="188" s="44" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A188" s="34"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="D188" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E188" s="29" t="s">
+      <c r="D188" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E188" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="F188" s="29"/>
-      <c r="G188" s="29"/>
-      <c r="H188" s="29"/>
-    </row>
-    <row r="189" s="40" customFormat="1" ht="84.9" customHeight="1" spans="1:8">
-      <c r="A189" s="30"/>
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="29" t="s">
+      <c r="F188" s="33"/>
+      <c r="G188" s="33"/>
+      <c r="H188" s="33"/>
+    </row>
+    <row r="189" s="44" customFormat="1" ht="84.9" customHeight="1" spans="1:8">
+      <c r="A189" s="34"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E189" s="29" t="s">
+      <c r="E189" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="F189" s="29" t="s">
+      <c r="F189" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G189" s="29" t="s">
+      <c r="G189" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="H189" s="30" t="s">
+      <c r="H189" s="34" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="190" s="40" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A190" s="42"/>
-      <c r="B190" s="42"/>
-      <c r="C190" s="42"/>
-      <c r="D190" s="42"/>
-      <c r="E190" s="42"/>
-      <c r="F190" s="42"/>
-      <c r="G190" s="42"/>
-      <c r="H190" s="42"/>
+    <row r="190" s="44" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A190" s="46"/>
+      <c r="B190" s="46"/>
+      <c r="C190" s="46"/>
+      <c r="D190" s="46"/>
+      <c r="E190" s="46"/>
+      <c r="F190" s="46"/>
+      <c r="G190" s="46"/>
+      <c r="H190" s="46"/>
     </row>
     <row r="191" customHeight="1" spans="1:8">
-      <c r="A191" s="44" t="s">
+      <c r="A191" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B191" s="44" t="s">
+      <c r="B191" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C191" s="44" t="s">
+      <c r="C191" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D191" s="44" t="s">
+      <c r="D191" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E191" s="44"/>
-      <c r="F191" s="44" t="s">
+      <c r="E191" s="48"/>
+      <c r="F191" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G191" s="44"/>
-      <c r="H191" s="44"/>
+      <c r="G191" s="48"/>
+      <c r="H191" s="48"/>
     </row>
     <row r="192" customHeight="1" spans="1:8">
-      <c r="A192" s="44"/>
-      <c r="B192" s="44"/>
-      <c r="C192" s="44"/>
-      <c r="D192" s="44" t="s">
+      <c r="A192" s="48"/>
+      <c r="B192" s="48"/>
+      <c r="C192" s="48"/>
+      <c r="D192" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E192" s="44" t="s">
+      <c r="E192" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F192" s="44" t="s">
+      <c r="F192" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G192" s="44" t="s">
+      <c r="G192" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H192" s="44" t="s">
+      <c r="H192" s="48" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8502,40 +8534,40 @@
       <c r="B193" s="20">
         <v>1110</v>
       </c>
-      <c r="C193" s="67" t="s">
+      <c r="C193" s="69" t="s">
         <v>335</v>
       </c>
-      <c r="D193" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="E193" s="67" t="s">
+      <c r="D193" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="E193" s="69" t="s">
         <v>336</v>
       </c>
-      <c r="F193" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G193" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="H193" s="67" t="s">
+      <c r="F193" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="G193" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="H193" s="69" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="194" ht="90" customHeight="1" spans="1:8">
       <c r="A194" s="20"/>
       <c r="B194" s="20"/>
-      <c r="C194" s="67"/>
-      <c r="D194" s="67" t="s">
+      <c r="C194" s="69"/>
+      <c r="D194" s="69" t="s">
         <v>337</v>
       </c>
-      <c r="E194" s="67"/>
-      <c r="F194" s="67" t="s">
+      <c r="E194" s="69"/>
+      <c r="F194" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="G194" s="67" t="s">
+      <c r="G194" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="H194" s="68" t="s">
+      <c r="H194" s="70" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8551,13 +8583,13 @@
       <c r="E195" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="F195" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G195" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H195" s="26" t="s">
+      <c r="F195" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G195" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H195" s="30" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8575,7 +8607,7 @@
       <c r="G196" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H196" s="28" t="s">
+      <c r="H196" s="32" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8591,13 +8623,13 @@
       <c r="E197" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="F197" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G197" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H197" s="26" t="s">
+      <c r="F197" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G197" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H197" s="30" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8615,17 +8647,17 @@
       <c r="G198" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H198" s="28" t="s">
+      <c r="H198" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="L198" s="59"/>
-      <c r="M198" s="59"/>
-      <c r="N198" s="59"/>
-      <c r="O198" s="59"/>
-      <c r="P198" s="59"/>
-      <c r="Q198" s="59"/>
-      <c r="R198" s="59"/>
-      <c r="S198" s="59"/>
+      <c r="L198" s="61"/>
+      <c r="M198" s="61"/>
+      <c r="N198" s="61"/>
+      <c r="O198" s="61"/>
+      <c r="P198" s="61"/>
+      <c r="Q198" s="61"/>
+      <c r="R198" s="61"/>
+      <c r="S198" s="61"/>
     </row>
     <row r="199" customHeight="1" spans="1:19">
       <c r="A199" s="20"/>
@@ -8639,23 +8671,23 @@
       <c r="E199" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="F199" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G199" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H199" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L199" s="59"/>
-      <c r="M199" s="59"/>
-      <c r="N199" s="59"/>
-      <c r="O199" s="59"/>
-      <c r="P199" s="59"/>
-      <c r="Q199" s="59"/>
-      <c r="R199" s="59"/>
-      <c r="S199" s="59"/>
+      <c r="F199" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G199" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H199" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L199" s="61"/>
+      <c r="M199" s="61"/>
+      <c r="N199" s="61"/>
+      <c r="O199" s="61"/>
+      <c r="P199" s="61"/>
+      <c r="Q199" s="61"/>
+      <c r="R199" s="61"/>
+      <c r="S199" s="61"/>
     </row>
     <row r="200" customHeight="1" spans="1:19">
       <c r="A200" s="20"/>
@@ -8669,13 +8701,13 @@
       <c r="E200" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="F200" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G200" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H200" s="26" t="s">
+      <c r="F200" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G200" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H200" s="30" t="s">
         <v>65</v>
       </c>
       <c r="L200" s="7"/>
@@ -8690,7 +8722,7 @@
     <row r="201" customHeight="1" spans="1:19">
       <c r="A201" s="20"/>
       <c r="B201" s="20"/>
-      <c r="C201" s="26" t="s">
+      <c r="C201" s="30" t="s">
         <v>350</v>
       </c>
       <c r="D201" s="20" t="s">
@@ -8699,9 +8731,9 @@
       <c r="E201" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="F201" s="26"/>
-      <c r="G201" s="26"/>
-      <c r="H201" s="26"/>
+      <c r="F201" s="30"/>
+      <c r="G201" s="30"/>
+      <c r="H201" s="30"/>
       <c r="L201" s="7"/>
       <c r="M201" s="8"/>
       <c r="N201" s="8"/>
@@ -8714,22 +8746,22 @@
     <row r="202" customHeight="1" spans="1:19">
       <c r="A202" s="20"/>
       <c r="B202" s="20"/>
-      <c r="C202" s="26" t="s">
+      <c r="C202" s="30" t="s">
         <v>352</v>
       </c>
       <c r="D202" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E202" s="26" t="s">
+      <c r="E202" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="F202" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G202" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H202" s="27" t="s">
+      <c r="F202" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G202" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H202" s="31" t="s">
         <v>354</v>
       </c>
       <c r="L202" s="7"/>
@@ -8744,22 +8776,22 @@
     <row r="203" customHeight="1" spans="1:19">
       <c r="A203" s="20"/>
       <c r="B203" s="20"/>
-      <c r="C203" s="26" t="s">
+      <c r="C203" s="30" t="s">
         <v>355</v>
       </c>
       <c r="D203" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E203" s="26" t="s">
+      <c r="E203" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F203" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G203" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H203" s="27"/>
+      <c r="F203" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G203" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H203" s="31"/>
       <c r="L203" s="7"/>
       <c r="M203" s="8"/>
       <c r="N203" s="8"/>
@@ -8772,7 +8804,7 @@
     <row r="204" customHeight="1" spans="1:19">
       <c r="A204" s="20"/>
       <c r="B204" s="20"/>
-      <c r="C204" s="26" t="s">
+      <c r="C204" s="30" t="s">
         <v>357</v>
       </c>
       <c r="D204" s="20" t="s">
@@ -8781,13 +8813,13 @@
       <c r="E204" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="F204" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G204" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H204" s="27"/>
+      <c r="F204" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G204" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H204" s="31"/>
       <c r="L204" s="7"/>
       <c r="M204" s="8"/>
       <c r="N204" s="8"/>
@@ -8800,22 +8832,22 @@
     <row r="205" customHeight="1" spans="1:19">
       <c r="A205" s="20"/>
       <c r="B205" s="20"/>
-      <c r="C205" s="26" t="s">
+      <c r="C205" s="30" t="s">
         <v>359</v>
       </c>
       <c r="D205" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E205" s="26" t="s">
+      <c r="E205" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="F205" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G205" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H205" s="27"/>
+      <c r="F205" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G205" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H205" s="31"/>
       <c r="L205" s="7"/>
       <c r="M205" s="8"/>
       <c r="N205" s="8"/>
@@ -8828,82 +8860,82 @@
     <row r="206" customHeight="1" spans="1:8">
       <c r="A206" s="20"/>
       <c r="B206" s="20"/>
-      <c r="C206" s="26" t="s">
+      <c r="C206" s="30" t="s">
         <v>361</v>
       </c>
       <c r="D206" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E206" s="26" t="s">
+      <c r="E206" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="F206" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G206" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H206" s="27"/>
+      <c r="F206" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G206" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H206" s="31"/>
     </row>
     <row r="207" customHeight="1" spans="1:8">
       <c r="A207" s="20"/>
       <c r="B207" s="20"/>
-      <c r="C207" s="26" t="s">
+      <c r="C207" s="30" t="s">
         <v>363</v>
       </c>
       <c r="D207" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E207" s="26" t="s">
+      <c r="E207" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="F207" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G207" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H207" s="27"/>
+      <c r="F207" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G207" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H207" s="31"/>
     </row>
     <row r="208" customHeight="1" spans="1:8">
       <c r="A208" s="20"/>
       <c r="B208" s="20"/>
-      <c r="C208" s="26" t="s">
+      <c r="C208" s="30" t="s">
         <v>365</v>
       </c>
       <c r="D208" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E208" s="26" t="s">
+      <c r="E208" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="F208" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G208" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H208" s="27"/>
+      <c r="F208" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G208" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H208" s="31"/>
     </row>
     <row r="210" customHeight="1" spans="1:8">
-      <c r="A210" s="59"/>
-      <c r="B210" s="59"/>
-      <c r="C210" s="59"/>
-      <c r="D210" s="59"/>
-      <c r="E210" s="59"/>
-      <c r="F210" s="59"/>
-      <c r="G210" s="59"/>
-      <c r="H210" s="59"/>
+      <c r="A210" s="61"/>
+      <c r="B210" s="61"/>
+      <c r="C210" s="61"/>
+      <c r="D210" s="61"/>
+      <c r="E210" s="61"/>
+      <c r="F210" s="61"/>
+      <c r="G210" s="61"/>
+      <c r="H210" s="61"/>
     </row>
     <row r="211" customHeight="1" spans="1:8">
-      <c r="A211" s="59"/>
-      <c r="B211" s="59"/>
-      <c r="C211" s="59"/>
-      <c r="D211" s="59"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="59"/>
-      <c r="G211" s="59"/>
-      <c r="H211" s="59"/>
+      <c r="A211" s="61"/>
+      <c r="B211" s="61"/>
+      <c r="C211" s="61"/>
+      <c r="D211" s="61"/>
+      <c r="E211" s="61"/>
+      <c r="F211" s="61"/>
+      <c r="G211" s="61"/>
+      <c r="H211" s="61"/>
     </row>
     <row r="212" customHeight="1" spans="1:8">
       <c r="A212" s="7"/>
@@ -9151,10 +9183,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H762"/>
+  <dimension ref="A1:H765"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C77" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -10144,56 +10176,60 @@
       </c>
     </row>
     <row r="53" ht="27.9" hidden="1" customHeight="1" spans="1:8">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="23" t="s">
+      <c r="A53" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23" t="s">
+      <c r="B53" s="23">
+        <v>2060</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="F53" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H53" s="23" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" ht="27.9" hidden="1" customHeight="1" spans="1:8">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23" t="s">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="F54" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H54" s="23" t="s">
+      <c r="D54" s="24"/>
+      <c r="E54" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" ht="27.9" hidden="1" customHeight="1" spans="1:8">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F55" s="14" t="s">
         <v>65</v>
@@ -10206,11 +10242,11 @@
       </c>
     </row>
     <row r="56" ht="74.25" hidden="1" customHeight="1" spans="1:8">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>67</v>
@@ -10222,169 +10258,163 @@
         <v>69</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="24" t="s">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="F57" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H57" s="24" t="s">
+      <c r="D57" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" ht="188.1" customHeight="1" spans="1:8">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="G58" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="H58" s="25" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="59" ht="27.9" customHeight="1"/>
+      <c r="H58" s="27" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="59" ht="68" customHeight="1" spans="1:8">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>430</v>
+      </c>
+    </row>
     <row r="60" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" ht="116" customHeight="1" spans="1:8">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" ht="27.9" customHeight="1"/>
+    <row r="63" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A63" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B63" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D63" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11" t="s">
+      <c r="E63" s="11"/>
+      <c r="F63" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11">
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11">
         <v>1000</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12" t="s">
+      <c r="C64" s="11"/>
+      <c r="D64" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E64" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F64" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="G64" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H64" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A62" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="B62" s="14">
+    <row r="65" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A65" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B65" s="14">
         <v>2080</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" ht="42" customHeight="1" spans="1:8">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="64" ht="225" customHeight="1" spans="1:8">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
       <c r="C65" s="14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>65</v>
@@ -10396,648 +10426,650 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" ht="35.25" customHeight="1" spans="1:8">
+    <row r="66" ht="42" customHeight="1" spans="1:8">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>69</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="67" ht="27.9" customHeight="1" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="67" ht="225" customHeight="1" spans="1:8">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>65</v>
+      <c r="C67" s="14"/>
+      <c r="D67" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="68" ht="27.9" customHeight="1" spans="1:8">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
+      <c r="C68" s="14" t="s">
+        <v>438</v>
+      </c>
       <c r="D68" s="14" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="69" ht="42.9" customHeight="1" spans="1:8">
+        <v>439</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" ht="35.25" customHeight="1" spans="1:8">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="E69" s="20" t="s">
+      <c r="D69" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20" t="s">
+      <c r="F69" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H69" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" ht="27.75" customHeight="1" spans="1:8">
+      <c r="H69" s="13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70" ht="27.9" customHeight="1" spans="1:8">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="13" t="s">
-        <v>438</v>
+      <c r="C70" s="14" t="s">
+        <v>441</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
+        <v>442</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="H70" s="14" t="s">
-        <v>440</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" ht="27.9" customHeight="1" spans="1:8">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="14" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F71" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G71" s="14" t="s">
+      <c r="F71" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" ht="27.9" customHeight="1" spans="1:8">
+      <c r="H71" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72" ht="42.9" customHeight="1" spans="1:8">
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" ht="107.25" customHeight="1" spans="1:8">
+      <c r="C72" s="14"/>
+      <c r="D72" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H72" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" ht="27.75" customHeight="1" spans="1:8">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
+      <c r="C73" s="13" t="s">
+        <v>444</v>
+      </c>
       <c r="D73" s="14" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>442</v>
+        <v>445</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="74" ht="27.9" customHeight="1" spans="1:8">
       <c r="A74" s="13"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="14" t="s">
-        <v>443</v>
-      </c>
+      <c r="C74" s="13"/>
       <c r="D74" s="14" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>444</v>
+        <v>67</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H74" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" ht="51.75" customHeight="1" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" ht="27.9" customHeight="1" spans="1:8">
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
+      <c r="C75" s="14" t="s">
+        <v>447</v>
+      </c>
       <c r="D75" s="14" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="76" ht="27.9" customHeight="1" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" ht="107.25" customHeight="1" spans="1:8">
       <c r="A76" s="13"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="14" t="s">
-        <v>446</v>
-      </c>
+      <c r="C76" s="14"/>
       <c r="D76" s="14" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>447</v>
+        <v>67</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H76" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" ht="54" customHeight="1" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="77" ht="27.9" customHeight="1" spans="1:8">
       <c r="A77" s="13"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14" t="s">
+        <v>449</v>
+      </c>
       <c r="D77" s="14" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>67</v>
+        <v>450</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="78" ht="54" customHeight="1" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" ht="51.75" customHeight="1" spans="1:8">
       <c r="A78" s="13"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="14" t="s">
-        <v>296</v>
-      </c>
+      <c r="C78" s="14"/>
       <c r="D78" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="13"/>
-    </row>
-    <row r="79" ht="54" customHeight="1" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="79" ht="27.9" customHeight="1" spans="1:8">
       <c r="A79" s="13"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14" t="s">
+        <v>452</v>
+      </c>
       <c r="D79" s="14" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>67</v>
+        <v>453</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>449</v>
+        <v>65</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="80" ht="54" customHeight="1" spans="1:8">
       <c r="A80" s="13"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="14" t="s">
-        <v>299</v>
-      </c>
+      <c r="C80" s="14"/>
       <c r="D80" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="81" ht="54" customHeight="1" spans="1:8">
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14" t="s">
+        <v>296</v>
+      </c>
       <c r="D81" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>451</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" ht="54" customHeight="1" spans="1:8">
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="14" t="s">
-        <v>289</v>
-      </c>
+      <c r="C82" s="14"/>
       <c r="D82" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="83" ht="54" customHeight="1" spans="1:8">
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14" t="s">
+        <v>299</v>
+      </c>
       <c r="D83" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>452</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" ht="54" customHeight="1" spans="1:8">
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="14" t="s">
-        <v>453</v>
-      </c>
+      <c r="C84" s="14"/>
       <c r="D84" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="85" ht="54" customHeight="1" spans="1:8">
       <c r="A85" s="13"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="14" t="s">
+        <v>289</v>
+      </c>
       <c r="D85" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="86" ht="27.9" customHeight="1" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="13"/>
+    </row>
+    <row r="86" ht="54" customHeight="1" spans="1:8">
       <c r="A86" s="13"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="14" t="s">
-        <v>455</v>
-      </c>
+      <c r="C86" s="14"/>
       <c r="D86" s="14" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>456</v>
+        <v>67</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" ht="53.25" customHeight="1" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="87" ht="54" customHeight="1" spans="1:8">
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
+      <c r="C87" s="14" t="s">
+        <v>459</v>
+      </c>
       <c r="D87" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="88" ht="27.9" customHeight="1" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="13"/>
+    </row>
+    <row r="88" ht="54" customHeight="1" spans="1:8">
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="F88" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G88" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H88" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="89" ht="75.9" customHeight="1" spans="1:8">
+      <c r="C88" s="14"/>
+      <c r="D88" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="89" ht="27.9" customHeight="1" spans="1:8">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29" t="s">
+      <c r="C89" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" ht="53.25" customHeight="1" spans="1:8">
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E89" s="29" t="s">
+      <c r="E90" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F89" s="29" t="s">
+      <c r="F90" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="G90" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H89" s="30" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="90" ht="27.9" customHeight="1"/>
+      <c r="H90" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
     <row r="91" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F91" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G91" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H91" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" ht="75.9" customHeight="1" spans="1:8">
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="G92" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H92" s="34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="93" ht="27.9" customHeight="1"/>
+    <row r="94" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A94" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B94" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D94" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11" t="s">
+      <c r="E94" s="11"/>
+      <c r="F94" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-    </row>
-    <row r="92" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A92" s="10"/>
-      <c r="B92" s="11">
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A95" s="10"/>
+      <c r="B95" s="11">
         <v>1000</v>
       </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="12" t="s">
+      <c r="C95" s="11"/>
+      <c r="D95" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E95" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F95" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G92" s="12" t="s">
+      <c r="G95" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H92" s="12" t="s">
+      <c r="H95" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A93" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="B93" s="31">
+    <row r="96" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A96" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="B96" s="35">
         <v>2400</v>
       </c>
-      <c r="C93" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="D93" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E93" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="F93" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G93" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="H93" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" ht="60.9" customHeight="1" spans="1:8">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32" t="s">
+      <c r="C96" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="F96" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H96" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" ht="60.9" customHeight="1" spans="1:8">
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="E94" s="32" t="s">
+      <c r="E97" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F94" s="34" t="s">
+      <c r="F97" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="G94" s="34" t="s">
+      <c r="G97" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H94" s="34" t="s">
+      <c r="H97" s="38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="95" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H95" s="35" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="96" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-    </row>
-    <row r="97" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H97" s="14" t="s">
+    <row r="98" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="13" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="98" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="13" t="s">
+      <c r="D98" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="D98" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E98" s="14" t="s">
+      <c r="F98" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H98" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="F98" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H98" s="14" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="99" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A99" s="33"/>
-      <c r="B99" s="33"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="13" t="s">
         <v>472</v>
       </c>
@@ -11047,22 +11079,16 @@
       <c r="E99" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="F99" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H99" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
     </row>
     <row r="100" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="13"/>
       <c r="D100" s="14" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E100" s="14" t="s">
         <v>67</v>
@@ -11071,410 +11097,471 @@
         <v>68</v>
       </c>
       <c r="G100" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="101" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G103" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H100" s="14" t="s">
+      <c r="H103" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="104" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A104" s="37"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="101" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H101" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="E102" s="14" t="s">
+      <c r="E105" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F102" s="14" t="s">
+      <c r="F105" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G102" s="14" t="s">
+      <c r="G105" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H102" s="14" t="s">
+      <c r="H105" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="106" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" ht="51" customHeight="1" spans="1:8">
+      <c r="A107" s="37"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="108" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A108" s="37"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="F108" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G108" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="H108" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A109" s="37"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F109" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G109" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H109" s="41" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="110" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A110" s="37"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E110" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="F110" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G110" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="H110" s="40" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="111" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F111" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G111" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H111" s="32" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="112" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A112" s="37"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="D112" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E112" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="F112" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G112" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="H112" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" ht="62.1" customHeight="1" spans="1:8">
+      <c r="A113" s="37"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="40" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="103" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G103" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H103" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="104" ht="51" customHeight="1" spans="1:8">
-      <c r="A104" s="33"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="E104" s="14" t="s">
+      <c r="E113" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F113" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="G104" s="14" t="s">
+      <c r="G113" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="H104" s="13" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="105" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="D105" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E105" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="F105" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G105" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H105" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="106" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A106" s="33"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="E106" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F106" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G106" s="37" t="s">
+      <c r="H113" s="40" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="114" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A114" s="37"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="F114" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G114" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="H114" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A115" s="37"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115" s="40" t="s">
+        <v>497</v>
+      </c>
+      <c r="F115" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G115" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="H115" s="40" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="116" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A116" s="42"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D116" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E116" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="F116" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G116" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="H116" s="40" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="117" ht="27.9" customHeight="1"/>
+    <row r="118" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A118" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+    </row>
+    <row r="119" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A119" s="10"/>
+      <c r="B119" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C119" s="11"/>
+      <c r="D119" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A120" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" s="14">
+        <v>2090</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+    </row>
+    <row r="121" ht="88.5" customHeight="1" spans="1:8">
+      <c r="A121" s="43"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G121" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H106" s="37" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="107" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A107" s="33"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="D107" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E107" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="F107" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G107" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H107" s="36" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="108" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A108" s="33"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="E108" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F108" s="20" t="s">
+      <c r="H121" s="13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="122" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A122" s="43"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+    </row>
+    <row r="123" ht="76.5" customHeight="1" spans="1:8">
+      <c r="A123" s="43"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F123" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G108" s="20" t="s">
+      <c r="G123" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H108" s="28" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="109" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A109" s="33"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="D109" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E109" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="F109" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G109" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H109" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="110" ht="62.1" customHeight="1" spans="1:8">
-      <c r="A110" s="33"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="E110" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F110" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G110" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="H110" s="36" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="111" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A111" s="33"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="D111" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E111" s="36" t="s">
-        <v>489</v>
-      </c>
-      <c r="F111" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G111" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H111" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="112" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A112" s="33"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="D112" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E112" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="F112" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G112" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H112" s="36" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="113" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A113" s="38"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="D113" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E113" s="36" t="s">
-        <v>494</v>
-      </c>
-      <c r="F113" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G113" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H113" s="36" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="114" ht="27.9" customHeight="1"/>
-    <row r="115" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A115" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-    </row>
-    <row r="116" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A116" s="10"/>
-      <c r="B116" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C116" s="11"/>
-      <c r="D116" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H116" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A117" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B117" s="14">
-        <v>2090</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-    </row>
-    <row r="118" ht="88.5" customHeight="1" spans="1:8">
-      <c r="A118" s="39"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H118" s="13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="119" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A119" s="39"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-    </row>
-    <row r="120" ht="76.5" customHeight="1" spans="1:8">
-      <c r="A120" s="39"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H120" s="13" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="121" ht="27.9" customHeight="1"/>
-    <row r="122" ht="27.9" customHeight="1"/>
-    <row r="123" ht="27.9" customHeight="1"/>
+      <c r="H123" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
     <row r="124" ht="27.9" customHeight="1"/>
     <row r="125" ht="27.9" customHeight="1"/>
     <row r="126" ht="27.9" customHeight="1"/>
@@ -12114,8 +12201,11 @@
     <row r="760" ht="27.9" customHeight="1"/>
     <row r="761" ht="27.9" customHeight="1"/>
     <row r="762" ht="27.9" customHeight="1"/>
+    <row r="763" ht="27.9" customHeight="1"/>
+    <row r="764" ht="27.9" customHeight="1"/>
+    <row r="765" ht="27.9" customHeight="1"/>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="108">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="D7:E7"/>
@@ -12130,12 +12220,12 @@
     <mergeCell ref="F40:H40"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="F51:H51"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:H118"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A7:A8"/>
@@ -12149,13 +12239,13 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A89"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A113"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A123"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B7:B8"/>
@@ -12169,13 +12259,13 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B89"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B113"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B92"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B116"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B123"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C7:C8"/>
@@ -12191,38 +12281,39 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C57:C59"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
     <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C94:C95"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C122:C123"/>
     <mergeCell ref="D42:D49"/>
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12261,11 +12352,11 @@
         <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -12302,13 +12393,13 @@
         <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:7">
@@ -12321,13 +12412,13 @@
         <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1"/>
@@ -12342,11 +12433,11 @@
         <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -12383,7 +12474,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>65</v>
@@ -12402,7 +12493,7 @@
         <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>65</v>
@@ -12423,11 +12514,11 @@
         <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -12464,7 +12555,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>65</v>
@@ -12483,7 +12574,7 @@
         <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>65</v>
@@ -12502,7 +12593,7 @@
         <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>65</v>
@@ -12521,7 +12612,7 @@
         <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>65</v>
@@ -12542,11 +12633,11 @@
         <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -12583,7 +12674,7 @@
         <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>65</v>
@@ -12602,7 +12693,7 @@
         <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>65</v>
@@ -12621,7 +12712,7 @@
         <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>65</v>
@@ -12640,7 +12731,7 @@
         <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>65</v>
@@ -12661,11 +12752,11 @@
         <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -12702,7 +12793,7 @@
         <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>65</v>
@@ -12721,7 +12812,7 @@
         <v>63</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>65</v>
@@ -12740,13 +12831,13 @@
         <v>63</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:7">
@@ -12759,7 +12850,7 @@
         <v>63</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>65</v>
@@ -12778,7 +12869,7 @@
         <v>63</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>65</v>
@@ -12797,7 +12888,7 @@
         <v>63</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>65</v>
@@ -12816,7 +12907,7 @@
         <v>63</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>65</v>
@@ -12835,7 +12926,7 @@
         <v>63</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>65</v>
@@ -12862,11 +12953,11 @@
         <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -12903,7 +12994,7 @@
         <v>63</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>65</v>
@@ -12922,7 +13013,7 @@
         <v>63</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>65</v>
@@ -12941,13 +13032,13 @@
         <v>63</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:7">
@@ -12960,13 +13051,13 @@
         <v>63</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" ht="30" customHeight="1"/>
@@ -12981,11 +13072,11 @@
         <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -13022,7 +13113,7 @@
         <v>63</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>65</v>
@@ -13041,7 +13132,7 @@
         <v>63</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>65</v>
@@ -13060,13 +13151,13 @@
         <v>63</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:7">
@@ -13079,13 +13170,13 @@
         <v>63</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="G48" s="4" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:7">
@@ -13098,7 +13189,7 @@
         <v>63</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>65</v>
@@ -13117,7 +13208,7 @@
         <v>63</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>65</v>
@@ -13136,7 +13227,7 @@
         <v>63</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>65</v>
@@ -13149,13 +13240,13 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>65</v>
@@ -13168,13 +13259,13 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>65</v>
@@ -13187,13 +13278,13 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>65</v>
@@ -13206,13 +13297,13 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>65</v>
@@ -13225,19 +13316,19 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="1:7">
@@ -13245,16 +13336,16 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="3" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1" spans="1:7">
@@ -13262,29 +13353,29 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="3" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" ht="30" customHeight="1" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>65</v>
@@ -13303,7 +13394,7 @@
         <v>63</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>65</v>
@@ -13324,11 +13415,11 @@
         <v>54</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G62" s="2"/>
     </row>
@@ -13353,19 +13444,19 @@
     </row>
     <row r="64" ht="30" customHeight="1" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B64" s="1">
         <v>1070</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>65</v>
@@ -13378,13 +13469,13 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>65</v>
@@ -13405,11 +13496,11 @@
         <v>54</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G67" s="2"/>
     </row>
@@ -13446,7 +13537,7 @@
         <v>63</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>65</v>
@@ -13465,7 +13556,7 @@
         <v>63</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>65</v>
@@ -13484,7 +13575,7 @@
         <v>63</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>65</v>
@@ -13503,7 +13594,7 @@
         <v>63</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>65</v>
@@ -13519,16 +13610,16 @@
         <v>247</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:7">
@@ -13541,13 +13632,13 @@
         <v>63</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="75" ht="30" customHeight="1" spans="1:7">
@@ -13560,26 +13651,26 @@
         <v>63</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76" ht="30" customHeight="1" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>65</v>
@@ -13592,13 +13683,13 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>65</v>
@@ -13611,13 +13702,13 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>65</v>
@@ -13630,13 +13721,13 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>65</v>
@@ -13649,13 +13740,13 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>65</v>
@@ -13668,13 +13759,13 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>65</v>
@@ -13693,7 +13784,7 @@
         <v>63</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>65</v>
@@ -13712,7 +13803,7 @@
         <v>63</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>65</v>
@@ -13731,7 +13822,7 @@
         <v>63</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>65</v>
@@ -13750,7 +13841,7 @@
         <v>63</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>65</v>
@@ -13769,7 +13860,7 @@
         <v>63</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>65</v>
@@ -13788,7 +13879,7 @@
         <v>63</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>65</v>
@@ -13801,19 +13892,19 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="89" ht="30" customHeight="1"/>
@@ -13828,11 +13919,11 @@
         <v>54</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G90" s="2"/>
     </row>
@@ -13857,19 +13948,19 @@
     </row>
     <row r="92" ht="30" customHeight="1" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B92" s="1">
         <v>1100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>65</v>
@@ -14573,11 +14664,11 @@
         <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -14602,19 +14693,19 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B3" s="1">
         <v>2000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>65</v>
@@ -14625,30 +14716,30 @@
     </row>
     <row r="4" ht="30" customHeight="1" spans="3:7">
       <c r="C4" s="1" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="3:7">
       <c r="C5" s="1" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>65</v>
@@ -14659,59 +14750,59 @@
     </row>
     <row r="6" ht="27.9" customHeight="1" spans="3:7">
       <c r="C6" s="1" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" ht="27.9" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" ht="27.9" customHeight="1" spans="3:7">
       <c r="C8" s="4" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" ht="27.9" customHeight="1" spans="3:7">
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>65</v>
@@ -14722,74 +14813,74 @@
     </row>
     <row r="10" ht="27.9" customHeight="1" spans="3:7">
       <c r="C10" s="1" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" ht="27.9" customHeight="1" spans="4:5">
       <c r="D11" s="4" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" ht="27.9" customHeight="1" spans="5:5">
       <c r="E12" s="4" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" ht="27.9" customHeight="1" spans="5:5">
       <c r="E13" s="4" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="14" ht="27.9" customHeight="1" spans="5:5">
       <c r="E14" s="4" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" ht="27.9" customHeight="1" spans="5:5">
       <c r="E15" s="4" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" ht="27.9" customHeight="1" spans="3:7">
       <c r="C16" s="1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" ht="27.9" customHeight="1" spans="7:7">
       <c r="G17" s="4" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" ht="27.9" customHeight="1" spans="7:7">
       <c r="G18" s="4" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="7:7">
@@ -14806,11 +14897,11 @@
         <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -14835,19 +14926,19 @@
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B22" s="1">
         <v>2010</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>65</v>
@@ -14858,13 +14949,13 @@
     </row>
     <row r="23" ht="30" customHeight="1" spans="3:7">
       <c r="C23" s="1" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>65</v>
@@ -14875,13 +14966,13 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C24" s="1" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>65</v>
@@ -14892,13 +14983,13 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C25" s="1" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>65</v>
@@ -14909,13 +15000,13 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C26" s="1" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>65</v>
@@ -14926,13 +15017,13 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C27" s="1" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>65</v>
@@ -14943,13 +15034,13 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C28" s="1" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>65</v>
@@ -14960,13 +15051,13 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C29" s="1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>65</v>
@@ -14987,11 +15078,11 @@
         <v>54</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G31" s="2"/>
     </row>
@@ -15016,19 +15107,19 @@
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B33" s="1">
         <v>2020</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>65</v>
@@ -15039,10 +15130,10 @@
     </row>
     <row r="34" ht="30" customHeight="1" spans="3:7">
       <c r="C34" s="1" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>65</v>
@@ -15063,11 +15154,11 @@
         <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -15092,19 +15183,19 @@
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B38" s="1">
         <v>2030</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>65</v>
@@ -15115,10 +15206,10 @@
     </row>
     <row r="39" ht="30" customHeight="1" spans="3:7">
       <c r="C39" s="1" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>65</v>
@@ -15139,11 +15230,11 @@
         <v>54</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -15168,7 +15259,7 @@
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B43" s="1">
         <v>2030</v>
@@ -15180,7 +15271,7 @@
         <v>63</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>65</v>
@@ -15197,7 +15288,7 @@
         <v>63</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>65</v>
@@ -15208,13 +15299,13 @@
     </row>
     <row r="45" ht="30" customHeight="1" spans="3:7">
       <c r="C45" s="1" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>65</v>
@@ -15225,27 +15316,27 @@
     </row>
     <row r="46" ht="30" customHeight="1" spans="3:7">
       <c r="C46" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="4:7">
       <c r="D47" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>65</v>
@@ -15256,27 +15347,27 @@
     </row>
     <row r="48" ht="30" customHeight="1" spans="3:7">
       <c r="C48" s="1" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="4:7">
       <c r="D49" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>65</v>
@@ -15293,7 +15384,7 @@
         <v>63</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>65</v>
@@ -15310,7 +15401,7 @@
         <v>63</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>65</v>
@@ -15327,7 +15418,7 @@
         <v>63</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>65</v>
@@ -15348,11 +15439,11 @@
         <v>54</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G54" s="2"/>
     </row>
@@ -15377,42 +15468,42 @@
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B56" s="1">
         <v>2080</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="3:7">
       <c r="C57" s="1" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1"/>
@@ -15427,11 +15518,11 @@
         <v>54</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G59" s="2"/>
     </row>
@@ -15456,19 +15547,19 @@
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B61" s="1">
         <v>2100</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>65</v>

--- a/assest/20240426-航天青岛一汽项目-项目标准需求协议表.xlsx
+++ b/assest/20240426-航天青岛一汽项目-项目标准需求协议表.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="677">
   <si>
     <t>同行者语音-车机项目需求接口协议</t>
   </si>
@@ -145,8 +145,7 @@
     <t>v1.1.1</t>
   </si>
   <si>
-    <t>1. 空调温度类型改回float
-2. 添加isForeground协助判断前台与后台媒体</t>
+    <t xml:space="preserve">1. 空调温度类型改回float </t>
   </si>
   <si>
     <t>同行者接收的广播：com.txznet.adapter.recv</t>
@@ -224,12 +223,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <charset val="134"/>
-      </rPr>
       <t>本协议针对接入同行者语音项目方案商，用于语音与车机系统之间的数据交换。
 广播协议以Android组件BroadcastReceiver作为载体，分为同行者发送和同行者接收：
 同行者发送：语音收到用户指令后，将指令以广播形式发送给车机。使用场景如调整音量、高度、打开应用和关闭应用等。
@@ -956,6 +949,9 @@
     <t>ac.temp.to</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>温度将要调到值</t>
   </si>
   <si>
@@ -1595,25 +1591,6 @@
 video.local：本地视频  
 audio.online:在线电台(喜马拉雅)
 null：无焦点，关闭媒体 </t>
-  </si>
-  <si>
-    <t>foreground</t>
-  </si>
-  <si>
-    <t>默认true
-true:前台打开
-false:后台打开</t>
-  </si>
-  <si>
-    <t>播放器状态</t>
-  </si>
-  <si>
-    <t>media.status</t>
-  </si>
-  <si>
-    <t>是否有播放器打开
-true：有播放器开着
-false：播放器关闭</t>
   </si>
   <si>
     <t>空调状态通知</t>
@@ -3683,7 +3660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3753,9 +3730,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3768,17 +3742,14 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3791,9 +3762,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3873,7 +3841,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3968,9 +3936,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4380,8 +4345,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -4395,104 +4360,104 @@
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:9">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:9">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:4">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="74">
         <v>44047</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="75" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="74">
         <v>44358</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="186.9" customHeight="1" spans="1:4">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="77">
         <v>45175</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="78" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="75" customFormat="1" ht="363.9" customHeight="1" spans="1:4">
-      <c r="A6" s="79" t="s">
+    <row r="6" s="72" customFormat="1" ht="363.9" customHeight="1" spans="1:4">
+      <c r="A6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="77">
         <v>45218</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="78" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="93" customHeight="1" spans="1:4">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="77">
         <v>45406</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="78" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4500,13 +4465,13 @@
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="79">
         <v>45456</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="81" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4514,69 +4479,69 @@
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="79">
         <v>45464</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="83" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" ht="78.9" customHeight="1" spans="1:4">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="85">
         <v>45467</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="87" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="52.05" customHeight="1" spans="1:4">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B11" s="85">
         <v>45482</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="89" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="123" customHeight="1" spans="1:4">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="85">
         <v>45483</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="91" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="78" customHeight="1" spans="1:4">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="95">
+      <c r="B13" s="79">
         <v>45492</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="93" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4610,247 +4575,247 @@
   </cols>
   <sheetData>
     <row r="1" ht="59.25" customHeight="1" spans="1:5">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
     </row>
     <row r="4" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="70">
         <v>1000</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="70" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" ht="35.1" customHeight="1" spans="1:6">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="73">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="70">
         <v>1010</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="73">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="70">
         <v>1020</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="70" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="73">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="70">
         <v>1030</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="70" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="73">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="70">
         <v>1040</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="70" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="73">
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="70">
         <v>1050</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="73">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="70">
         <v>1060</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="70" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="73">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="70">
         <v>1080</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="70" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="73">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="70">
         <v>1091</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="70" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="73">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="70">
         <v>1096</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="70" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="73">
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="70">
         <v>1097</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="70" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="73">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="70">
         <v>1110</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="70" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="70">
         <v>2000</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="70" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73">
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70">
         <v>2010</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="70" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70">
         <v>2020</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73">
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70">
         <v>2030</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="70" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70">
         <v>2040</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="70" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73">
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70">
         <v>2080</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="70" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A22" s="74"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73">
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70">
         <v>2400</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="70" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4884,7 +4849,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="280.5" customHeight="1" spans="1:1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="68" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4900,62 +4865,62 @@
   <sheetPr/>
   <dimension ref="A1:S217"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160:D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" style="46" customWidth="1"/>
-    <col min="2" max="2" width="13.8888888888889" style="46" customWidth="1"/>
-    <col min="3" max="3" width="37.8888888888889" style="46" customWidth="1"/>
-    <col min="4" max="4" width="9.88888888888889" style="46" customWidth="1"/>
-    <col min="5" max="5" width="26.7777777777778" style="46" customWidth="1"/>
-    <col min="6" max="6" width="8.66666666666667" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.6666666666667" style="46" customWidth="1"/>
-    <col min="8" max="8" width="29.3333333333333" style="46" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="47"/>
+    <col min="1" max="1" width="9.44444444444444" style="43" customWidth="1"/>
+    <col min="2" max="2" width="13.8888888888889" style="43" customWidth="1"/>
+    <col min="3" max="3" width="37.8888888888889" style="43" customWidth="1"/>
+    <col min="4" max="4" width="9.88888888888889" style="43" customWidth="1"/>
+    <col min="5" max="5" width="26.7777777777778" style="43" customWidth="1"/>
+    <col min="6" max="6" width="8.66666666666667" style="43" customWidth="1"/>
+    <col min="7" max="7" width="10.6666666666667" style="43" customWidth="1"/>
+    <col min="8" max="8" width="29.3333333333333" style="43" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45">
         <v>1000</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="45" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4992,7 +4957,7 @@
       <c r="D4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -5001,7 +4966,7 @@
       <c r="G4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="30" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5034,7 +4999,7 @@
       <c r="D6" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -5043,91 +5008,91 @@
       <c r="G6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="49" t="s">
+      <c r="F7" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="46" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45">
         <v>1000</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="45" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5178,44 +5143,44 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48" t="s">
+      <c r="E15" s="45"/>
+      <c r="F15" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45">
         <v>1000</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="45" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5369,7 +5334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" s="44" customFormat="1" customHeight="1" spans="1:9">
+    <row r="24" s="41" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20" t="s">
@@ -5382,9 +5347,9 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="47"/>
-    </row>
-    <row r="25" s="44" customFormat="1" customHeight="1" spans="1:9">
+      <c r="I24" s="44"/>
+    </row>
+    <row r="25" s="41" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20" t="s">
@@ -5399,9 +5364,9 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="47"/>
-    </row>
-    <row r="26" s="44" customFormat="1" customHeight="1" spans="1:9">
+      <c r="I25" s="44"/>
+    </row>
+    <row r="26" s="41" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -5420,47 +5385,47 @@
       <c r="H26" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="47"/>
+      <c r="I26" s="44"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48" t="s">
+      <c r="E28" s="45"/>
+      <c r="F28" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45">
         <v>1000</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48" t="s">
+      <c r="C29" s="45"/>
+      <c r="D29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="48" t="s">
+      <c r="H29" s="45" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5504,7 +5469,7 @@
       <c r="G31" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="30" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5584,7 +5549,7 @@
       <c r="G35" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="30" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5726,7 +5691,7 @@
       <c r="G42" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5786,7 +5751,7 @@
       <c r="G45" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="30" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5846,7 +5811,7 @@
       <c r="G48" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="H48" s="30" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5869,44 +5834,44 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="48" t="s">
+      <c r="D51" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48" t="s">
+      <c r="E51" s="45"/>
+      <c r="F51" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
     </row>
     <row r="52" customHeight="1" spans="1:8">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45">
         <v>1000</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48" t="s">
+      <c r="C52" s="45"/>
+      <c r="D52" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="48" t="s">
+      <c r="F52" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G52" s="48" t="s">
+      <c r="G52" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="H52" s="45" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6007,7 +5972,7 @@
       <c r="D57" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F57" s="20" t="s">
@@ -6016,83 +5981,83 @@
       <c r="G57" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H57" s="32" t="s">
+      <c r="H57" s="30" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="58" ht="52.95" customHeight="1" spans="1:8">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="51" t="s">
+      <c r="D58" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="52" t="s">
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="49" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="59" ht="52.95" customHeight="1" spans="1:8">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
-      <c r="C59" s="50" t="s">
+      <c r="C59" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E59" s="51" t="s">
+      <c r="D59" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="50" t="s">
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="47" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="60" ht="52.95" customHeight="1" spans="1:8">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" s="51" t="s">
+      <c r="D60" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" s="53" t="s">
+      <c r="F60" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" s="50" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="51" t="s">
+      <c r="D61" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51" t="s">
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6207,44 +6172,44 @@
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:8">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="48" t="s">
+      <c r="D68" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48" t="s">
+      <c r="E68" s="45"/>
+      <c r="F68" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
     </row>
     <row r="69" customHeight="1" spans="1:8">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48">
+      <c r="A69" s="45"/>
+      <c r="B69" s="45">
         <v>1000</v>
       </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48" t="s">
+      <c r="C69" s="45"/>
+      <c r="D69" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F69" s="48" t="s">
+      <c r="F69" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="48" t="s">
+      <c r="G69" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="48" t="s">
+      <c r="H69" s="45" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6351,7 +6316,7 @@
       <c r="D75" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="32" t="s">
+      <c r="E75" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F75" s="20" t="s">
@@ -6360,7 +6325,7 @@
       <c r="G75" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H75" s="32" t="s">
+      <c r="H75" s="30" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6393,7 +6358,7 @@
       <c r="D77" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="E77" s="32" t="s">
+      <c r="E77" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F77" s="20" t="s">
@@ -6402,7 +6367,7 @@
       <c r="G77" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H77" s="32" t="s">
+      <c r="H77" s="30" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6415,7 +6380,7 @@
       <c r="D78" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="32" t="s">
+      <c r="E78" s="30" t="s">
         <v>177</v>
       </c>
       <c r="F78" s="20" t="s">
@@ -6435,7 +6400,7 @@
         <v>178</v>
       </c>
       <c r="D79" s="20"/>
-      <c r="E79" s="32" t="s">
+      <c r="E79" s="30" t="s">
         <v>179</v>
       </c>
       <c r="F79" s="20" t="s">
@@ -6455,7 +6420,7 @@
         <v>180</v>
       </c>
       <c r="D80" s="20"/>
-      <c r="E80" s="32" t="s">
+      <c r="E80" s="30" t="s">
         <v>181</v>
       </c>
       <c r="F80" s="20" t="s">
@@ -6475,7 +6440,7 @@
         <v>182</v>
       </c>
       <c r="D81" s="20"/>
-      <c r="E81" s="32" t="s">
+      <c r="E81" s="30" t="s">
         <v>183</v>
       </c>
       <c r="F81" s="20" t="s">
@@ -6495,7 +6460,7 @@
         <v>184</v>
       </c>
       <c r="D82" s="20"/>
-      <c r="E82" s="32" t="s">
+      <c r="E82" s="30" t="s">
         <v>185</v>
       </c>
       <c r="F82" s="20" t="s">
@@ -6515,7 +6480,7 @@
         <v>186</v>
       </c>
       <c r="D83" s="20"/>
-      <c r="E83" s="32" t="s">
+      <c r="E83" s="30" t="s">
         <v>187</v>
       </c>
       <c r="F83" s="20" t="s">
@@ -6535,7 +6500,7 @@
         <v>188</v>
       </c>
       <c r="D84" s="20"/>
-      <c r="E84" s="32" t="s">
+      <c r="E84" s="30" t="s">
         <v>189</v>
       </c>
       <c r="F84" s="20" t="s">
@@ -6555,7 +6520,7 @@
         <v>190</v>
       </c>
       <c r="D85" s="20"/>
-      <c r="E85" s="32" t="s">
+      <c r="E85" s="30" t="s">
         <v>191</v>
       </c>
       <c r="F85" s="20" t="s">
@@ -6575,7 +6540,7 @@
         <v>192</v>
       </c>
       <c r="D86" s="20"/>
-      <c r="E86" s="32" t="s">
+      <c r="E86" s="30" t="s">
         <v>193</v>
       </c>
       <c r="F86" s="20" t="s">
@@ -6595,7 +6560,7 @@
         <v>194</v>
       </c>
       <c r="D87" s="20"/>
-      <c r="E87" s="32" t="s">
+      <c r="E87" s="30" t="s">
         <v>195</v>
       </c>
       <c r="F87" s="20" t="s">
@@ -6611,63 +6576,63 @@
     <row r="88" customHeight="1" spans="1:8">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="51" t="s">
         <v>196</v>
       </c>
       <c r="D88" s="20"/>
-      <c r="E88" s="55" t="s">
+      <c r="E88" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="F88" s="54"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="54" t="s">
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:8">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B90" s="48" t="s">
+      <c r="B90" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C90" s="48" t="s">
+      <c r="C90" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D90" s="48" t="s">
+      <c r="D90" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48" t="s">
+      <c r="E90" s="45"/>
+      <c r="F90" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
     </row>
     <row r="91" customHeight="1" spans="1:8">
-      <c r="A91" s="48"/>
-      <c r="B91" s="48">
+      <c r="A91" s="45"/>
+      <c r="B91" s="45">
         <v>1000</v>
       </c>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48" t="s">
+      <c r="C91" s="45"/>
+      <c r="D91" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E91" s="48" t="s">
+      <c r="E91" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F91" s="48" t="s">
+      <c r="F91" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G91" s="48" t="s">
+      <c r="G91" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H91" s="48" t="s">
+      <c r="H91" s="45" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:8">
-      <c r="A92" s="56" t="s">
+      <c r="A92" s="53" t="s">
         <v>38</v>
       </c>
       <c r="B92" s="20">
@@ -6676,91 +6641,91 @@
       <c r="C92" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D92" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="E92" s="54" t="s">
+      <c r="D92" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="F92" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G92" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="H92" s="55" t="s">
+      <c r="F92" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G92" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H92" s="52" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="93" ht="180" customHeight="1" spans="1:8">
-      <c r="A93" s="57"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="54" t="s">
+      <c r="D93" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="E93" s="55" t="s">
+      <c r="E93" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="F93" s="54" t="s">
+      <c r="F93" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="G93" s="54" t="s">
+      <c r="G93" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H93" s="55" t="s">
+      <c r="H93" s="52" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:8">
-      <c r="A94" s="57"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D94" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="E94" s="54" t="s">
+      <c r="D94" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="F94" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G94" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="H94" s="54" t="s">
+      <c r="F94" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H94" s="51" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95" ht="71.25" customHeight="1" spans="1:8">
-      <c r="A95" s="57"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
-      <c r="D95" s="54" t="s">
+      <c r="D95" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="E95" s="55" t="s">
+      <c r="E95" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="F95" s="54" t="s">
+      <c r="F95" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="54" t="s">
+      <c r="G95" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H95" s="55" t="s">
+      <c r="H95" s="52" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:8">
-      <c r="A96" s="57"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="56" t="s">
+      <c r="D96" s="53" t="s">
         <v>63</v>
       </c>
       <c r="E96" s="20" t="s">
@@ -6777,12 +6742,12 @@
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:8">
-      <c r="A97" s="57"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D97" s="57"/>
+      <c r="D97" s="54"/>
       <c r="E97" s="20" t="s">
         <v>209</v>
       </c>
@@ -6797,12 +6762,12 @@
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:8">
-      <c r="A98" s="57"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="57"/>
+      <c r="D98" s="54"/>
       <c r="E98" s="20" t="s">
         <v>211</v>
       </c>
@@ -6817,12 +6782,12 @@
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:8">
-      <c r="A99" s="57"/>
+      <c r="A99" s="54"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D99" s="57"/>
+      <c r="D99" s="54"/>
       <c r="E99" s="20" t="s">
         <v>213</v>
       </c>
@@ -6837,12 +6802,12 @@
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:8">
-      <c r="A100" s="57"/>
+      <c r="A100" s="54"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D100" s="57"/>
+      <c r="D100" s="54"/>
       <c r="E100" s="20" t="s">
         <v>215</v>
       </c>
@@ -6857,12 +6822,12 @@
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:8">
-      <c r="A101" s="57"/>
+      <c r="A101" s="54"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="57"/>
+      <c r="D101" s="54"/>
       <c r="E101" s="20" t="s">
         <v>217</v>
       </c>
@@ -6877,12 +6842,12 @@
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:8">
-      <c r="A102" s="57"/>
+      <c r="A102" s="54"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="D102" s="57"/>
+      <c r="D102" s="54"/>
       <c r="E102" s="20" t="s">
         <v>219</v>
       </c>
@@ -6897,12 +6862,12 @@
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:8">
-      <c r="A103" s="57"/>
+      <c r="A103" s="54"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D103" s="58"/>
+      <c r="D103" s="55"/>
       <c r="E103" s="20" t="s">
         <v>221</v>
       </c>
@@ -6917,13 +6882,13 @@
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:8">
-      <c r="A104" s="57"/>
+      <c r="A104" s="54"/>
       <c r="B104" s="20"/>
-      <c r="C104" s="59" t="s">
+      <c r="C104" s="56" t="s">
         <v>222</v>
       </c>
       <c r="D104" s="20"/>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="27" t="s">
         <v>223</v>
       </c>
       <c r="F104" s="20"/>
@@ -6931,124 +6896,124 @@
       <c r="H104" s="20"/>
     </row>
     <row r="105" customHeight="1" spans="1:8">
-      <c r="A105" s="57"/>
+      <c r="A105" s="54"/>
       <c r="B105" s="20"/>
-      <c r="C105" s="59" t="s">
+      <c r="C105" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="D105" s="48"/>
-      <c r="E105" s="30" t="s">
+      <c r="D105" s="45"/>
+      <c r="E105" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="48"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
     </row>
     <row r="106" customHeight="1" spans="1:8">
-      <c r="A106" s="57"/>
+      <c r="A106" s="54"/>
       <c r="B106" s="20"/>
-      <c r="C106" s="59" t="s">
+      <c r="C106" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="D106" s="48"/>
-      <c r="E106" s="30" t="s">
+      <c r="D106" s="45"/>
+      <c r="E106" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="48"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
     </row>
     <row r="107" customHeight="1" spans="1:8">
-      <c r="A107" s="57"/>
+      <c r="A107" s="54"/>
       <c r="B107" s="20"/>
-      <c r="C107" s="59" t="s">
+      <c r="C107" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="D107" s="48"/>
-      <c r="E107" s="30" t="s">
+      <c r="D107" s="45"/>
+      <c r="E107" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="48"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="45"/>
     </row>
     <row r="108" customHeight="1" spans="1:8">
-      <c r="A108" s="57"/>
+      <c r="A108" s="54"/>
       <c r="B108" s="20"/>
-      <c r="C108" s="59" t="s">
+      <c r="C108" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="D108" s="48"/>
-      <c r="E108" s="30" t="s">
+      <c r="D108" s="45"/>
+      <c r="E108" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="45"/>
     </row>
     <row r="109" customHeight="1" spans="1:8">
-      <c r="A109" s="58"/>
+      <c r="A109" s="55"/>
       <c r="B109" s="20"/>
-      <c r="C109" s="60" t="s">
+      <c r="C109" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D109" s="48"/>
-      <c r="E109" s="30" t="s">
+      <c r="D109" s="45"/>
+      <c r="E109" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
     </row>
     <row r="110" customHeight="1" spans="1:8">
-      <c r="A110" s="61"/>
-      <c r="B110" s="61"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="61"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
-      <c r="G110" s="61"/>
-      <c r="H110" s="61"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58"/>
     </row>
     <row r="111" customHeight="1" spans="1:8">
-      <c r="A111" s="48" t="s">
+      <c r="A111" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B111" s="48" t="s">
+      <c r="B111" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C111" s="48" t="s">
+      <c r="C111" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D111" s="48" t="s">
+      <c r="D111" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48" t="s">
+      <c r="E111" s="45"/>
+      <c r="F111" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G111" s="48"/>
-      <c r="H111" s="48"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
     </row>
     <row r="112" customHeight="1" spans="1:8">
-      <c r="A112" s="48"/>
-      <c r="B112" s="48">
+      <c r="A112" s="45"/>
+      <c r="B112" s="45">
         <v>1000</v>
       </c>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48" t="s">
+      <c r="C112" s="45"/>
+      <c r="D112" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E112" s="48" t="s">
+      <c r="E112" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F112" s="48" t="s">
+      <c r="F112" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G112" s="48" t="s">
+      <c r="G112" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H112" s="48" t="s">
+      <c r="H112" s="45" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7082,15 +7047,15 @@
       <c r="A114" s="20"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
-      <c r="D114" s="54" t="s">
+      <c r="D114" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="E114" s="54"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="54" t="s">
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H114" s="55" t="s">
+      <c r="H114" s="52" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7120,15 +7085,15 @@
       <c r="A116" s="20"/>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
-      <c r="D116" s="54" t="s">
+      <c r="D116" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="E116" s="54"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54" t="s">
+      <c r="E116" s="51"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H116" s="54" t="s">
+      <c r="H116" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7206,21 +7171,21 @@
       <c r="E120" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F120" s="63" t="s">
-        <v>85</v>
+      <c r="F120" s="60" t="s">
+        <v>246</v>
       </c>
       <c r="G120" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H120" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="J120" s="46"/>
-      <c r="K120" s="46"/>
-      <c r="L120" s="46"/>
-      <c r="M120" s="46"/>
-      <c r="N120" s="46"/>
-      <c r="O120" s="46"/>
+        <v>247</v>
+      </c>
+      <c r="J120" s="43"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="43"/>
+      <c r="M120" s="43"/>
+      <c r="N120" s="43"/>
+      <c r="O120" s="43"/>
     </row>
     <row r="121" ht="36.9" customHeight="1" spans="1:15">
       <c r="A121" s="20"/>
@@ -7234,27 +7199,27 @@
       <c r="G121" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H121" s="32" t="s">
+      <c r="H121" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="J121" s="46"/>
-      <c r="K121" s="46"/>
-      <c r="L121" s="46"/>
-      <c r="M121" s="46"/>
-      <c r="N121" s="46"/>
-      <c r="O121" s="46"/>
+      <c r="J121" s="43"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="43"/>
+      <c r="M121" s="43"/>
+      <c r="N121" s="43"/>
+      <c r="O121" s="43"/>
     </row>
     <row r="122" customHeight="1" spans="1:15">
       <c r="A122" s="20"/>
       <c r="B122" s="20"/>
       <c r="C122" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D122" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F122" s="20" t="s">
         <v>65</v>
@@ -7265,12 +7230,12 @@
       <c r="H122" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J122" s="46"/>
-      <c r="K122" s="46"/>
-      <c r="L122" s="46"/>
-      <c r="M122" s="46"/>
-      <c r="N122" s="46"/>
-      <c r="O122" s="46"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="43"/>
+      <c r="O122" s="43"/>
     </row>
     <row r="123" customHeight="1" spans="1:8">
       <c r="A123" s="20"/>
@@ -7282,14 +7247,14 @@
       <c r="E123" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F123" s="63" t="s">
-        <v>85</v>
+      <c r="F123" s="60" t="s">
+        <v>246</v>
       </c>
       <c r="G123" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H123" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:8">
@@ -7312,13 +7277,13 @@
       <c r="A125" s="20"/>
       <c r="B125" s="20"/>
       <c r="C125" s="20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D125" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F125" s="20" t="s">
         <v>65</v>
@@ -7340,14 +7305,14 @@
       <c r="E126" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F126" s="63" t="s">
-        <v>85</v>
+      <c r="F126" s="60" t="s">
+        <v>246</v>
       </c>
       <c r="G126" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H126" s="20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:8">
@@ -7363,20 +7328,20 @@
         <v>69</v>
       </c>
       <c r="H127" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:8">
       <c r="A128" s="20"/>
       <c r="B128" s="20"/>
       <c r="C128" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D128" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E128" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
@@ -7387,7 +7352,7 @@
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E129" s="20" t="s">
         <v>67</v>
@@ -7398,21 +7363,21 @@
       <c r="G129" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H129" s="32" t="s">
-        <v>257</v>
+      <c r="H129" s="30" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:8">
       <c r="A130" s="20"/>
       <c r="B130" s="20"/>
       <c r="C130" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D130" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F130" s="20" t="s">
         <v>65</v>
@@ -7428,11 +7393,11 @@
       <c r="A131" s="20"/>
       <c r="B131" s="20"/>
       <c r="C131" s="20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D131" s="20"/>
       <c r="E131" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F131" s="20" t="s">
         <v>65</v>
@@ -7448,11 +7413,11 @@
       <c r="A132" s="20"/>
       <c r="B132" s="20"/>
       <c r="C132" s="20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D132" s="20"/>
       <c r="E132" s="20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F132" s="20" t="s">
         <v>65</v>
@@ -7468,11 +7433,11 @@
       <c r="A133" s="20"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D133" s="20"/>
       <c r="E133" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F133" s="20" t="s">
         <v>65</v>
@@ -7488,11 +7453,11 @@
       <c r="A134" s="20"/>
       <c r="B134" s="20"/>
       <c r="C134" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D134" s="20"/>
       <c r="E134" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F134" s="20" t="s">
         <v>65</v>
@@ -7508,47 +7473,47 @@
       <c r="A135" s="20"/>
       <c r="B135" s="20"/>
       <c r="C135" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D135" s="20"/>
       <c r="E135" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
     </row>
-    <row r="136" s="45" customFormat="1" hidden="1" customHeight="1" spans="1:8">
+    <row r="136" s="42" customFormat="1" hidden="1" customHeight="1" spans="1:8">
       <c r="A136" s="20"/>
       <c r="B136" s="20"/>
-      <c r="C136" s="64" t="s">
-        <v>270</v>
+      <c r="C136" s="61" t="s">
+        <v>271</v>
       </c>
       <c r="D136" s="20"/>
-      <c r="E136" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="F136" s="64"/>
-      <c r="G136" s="64"/>
-      <c r="H136" s="64"/>
+      <c r="E136" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="F136" s="61"/>
+      <c r="G136" s="61"/>
+      <c r="H136" s="61"/>
     </row>
     <row r="137" customHeight="1" spans="1:8">
       <c r="A137" s="20"/>
       <c r="B137" s="20"/>
-      <c r="C137" s="65" t="s">
-        <v>272</v>
+      <c r="C137" s="62" t="s">
+        <v>273</v>
       </c>
       <c r="D137" s="20"/>
-      <c r="E137" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F137" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G137" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="H137" s="65" t="s">
+      <c r="E137" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="F137" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G137" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H137" s="62" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7556,11 +7521,11 @@
       <c r="A138" s="20"/>
       <c r="B138" s="20"/>
       <c r="C138" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D138" s="20"/>
       <c r="E138" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F138" s="20" t="s">
         <v>65</v>
@@ -7576,11 +7541,11 @@
       <c r="A139" s="20"/>
       <c r="B139" s="20"/>
       <c r="C139" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D139" s="20"/>
       <c r="E139" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F139" s="20" t="s">
         <v>65</v>
@@ -7596,13 +7561,13 @@
       <c r="A140" s="20"/>
       <c r="B140" s="20"/>
       <c r="C140" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E140" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F140" s="20" t="s">
         <v>65</v>
@@ -7631,7 +7596,7 @@
         <v>69</v>
       </c>
       <c r="H141" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:8">
@@ -7654,13 +7619,13 @@
       <c r="A143" s="20"/>
       <c r="B143" s="20"/>
       <c r="C143" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E143" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F143" s="20" t="s">
         <v>65</v>
@@ -7689,7 +7654,7 @@
         <v>69</v>
       </c>
       <c r="H144" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:8">
@@ -7712,13 +7677,13 @@
       <c r="A146" s="20"/>
       <c r="B146" s="20"/>
       <c r="C146" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E146" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F146" s="20" t="s">
         <v>65</v>
@@ -7747,7 +7712,7 @@
         <v>69</v>
       </c>
       <c r="H147" s="20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:8">
@@ -7769,287 +7734,287 @@
     <row r="149" customHeight="1" spans="1:8">
       <c r="A149" s="20"/>
       <c r="B149" s="20"/>
-      <c r="C149" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="D149" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="E149" s="33" t="s">
+      <c r="C149" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="F149" s="65"/>
-      <c r="G149" s="65"/>
-      <c r="H149" s="65"/>
+      <c r="D149" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E149" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="F149" s="62"/>
+      <c r="G149" s="62"/>
+      <c r="H149" s="62"/>
     </row>
     <row r="150" customHeight="1" spans="1:8">
       <c r="A150" s="20"/>
       <c r="B150" s="20"/>
-      <c r="C150" s="65" t="s">
-        <v>289</v>
-      </c>
-      <c r="D150" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="E150" s="65" t="s">
+      <c r="C150" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="F150" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G150" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="H150" s="65" t="s">
+      <c r="D150" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E150" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="F150" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G150" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H150" s="62" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:8">
       <c r="A151" s="20"/>
       <c r="B151" s="20"/>
-      <c r="C151" s="65"/>
-      <c r="D151" s="65" t="s">
+      <c r="C151" s="62"/>
+      <c r="D151" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="E151" s="65" t="s">
+      <c r="E151" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="F151" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="G151" s="65" t="s">
+      <c r="F151" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G151" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="H151" s="66" t="s">
-        <v>292</v>
+      <c r="H151" s="63" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:8">
       <c r="A152" s="20"/>
       <c r="B152" s="20"/>
-      <c r="C152" s="65"/>
-      <c r="D152" s="65"/>
-      <c r="E152" s="65"/>
-      <c r="F152" s="65"/>
-      <c r="G152" s="65"/>
-      <c r="H152" s="65"/>
+      <c r="C152" s="62"/>
+      <c r="D152" s="62"/>
+      <c r="E152" s="62"/>
+      <c r="F152" s="62"/>
+      <c r="G152" s="62"/>
+      <c r="H152" s="62"/>
     </row>
     <row r="153" customHeight="1" spans="1:8">
       <c r="A153" s="20"/>
       <c r="B153" s="20"/>
-      <c r="C153" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="D153" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="E153" s="65" t="s">
+      <c r="C153" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="F153" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G153" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="H153" s="65" t="s">
+      <c r="D153" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E153" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="F153" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G153" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H153" s="62" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:8">
       <c r="A154" s="20"/>
       <c r="B154" s="20"/>
-      <c r="C154" s="65"/>
-      <c r="D154" s="65" t="s">
+      <c r="C154" s="62"/>
+      <c r="D154" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E154" s="65" t="s">
+      <c r="E154" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="F154" s="65" t="s">
+      <c r="F154" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="G154" s="65" t="s">
+      <c r="G154" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="H154" s="65" t="s">
-        <v>295</v>
+      <c r="H154" s="62" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:11">
       <c r="A155" s="20"/>
       <c r="B155" s="20"/>
-      <c r="C155" s="65"/>
-      <c r="D155" s="65"/>
-      <c r="E155" s="65"/>
-      <c r="F155" s="65"/>
-      <c r="G155" s="65"/>
-      <c r="H155" s="65"/>
-      <c r="K155" s="46"/>
+      <c r="C155" s="62"/>
+      <c r="D155" s="62"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="62"/>
+      <c r="G155" s="62"/>
+      <c r="H155" s="62"/>
+      <c r="K155" s="43"/>
     </row>
     <row r="156" customHeight="1" spans="1:8">
       <c r="A156" s="20"/>
       <c r="B156" s="20"/>
-      <c r="C156" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="D156" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="E156" s="65" t="s">
+      <c r="C156" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="F156" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G156" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="H156" s="65" t="s">
+      <c r="D156" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E156" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G156" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H156" s="62" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:8">
       <c r="A157" s="20"/>
       <c r="B157" s="20"/>
-      <c r="C157" s="65"/>
-      <c r="D157" s="65" t="s">
+      <c r="C157" s="62"/>
+      <c r="D157" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E157" s="65" t="s">
+      <c r="E157" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="F157" s="65" t="s">
+      <c r="F157" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="G157" s="65" t="s">
+      <c r="G157" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="H157" s="65" t="s">
-        <v>298</v>
+      <c r="H157" s="62" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:8">
       <c r="A158" s="20"/>
       <c r="B158" s="20"/>
-      <c r="C158" s="65"/>
-      <c r="D158" s="65"/>
-      <c r="E158" s="65"/>
-      <c r="F158" s="65"/>
-      <c r="G158" s="65"/>
-      <c r="H158" s="65"/>
+      <c r="C158" s="62"/>
+      <c r="D158" s="62"/>
+      <c r="E158" s="62"/>
+      <c r="F158" s="62"/>
+      <c r="G158" s="62"/>
+      <c r="H158" s="62"/>
     </row>
     <row r="159" customHeight="1" spans="1:8">
       <c r="A159" s="20"/>
       <c r="B159" s="20"/>
-      <c r="C159" s="65" t="s">
-        <v>299</v>
-      </c>
-      <c r="D159" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="E159" s="65" t="s">
+      <c r="C159" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="F159" s="67"/>
-      <c r="G159" s="67"/>
-      <c r="H159" s="67"/>
+      <c r="D159" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E159" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="F159" s="64"/>
+      <c r="G159" s="64"/>
+      <c r="H159" s="64"/>
     </row>
     <row r="160" customHeight="1" spans="1:8">
       <c r="A160" s="20"/>
       <c r="B160" s="20"/>
-      <c r="C160" s="65"/>
-      <c r="D160" s="65" t="s">
+      <c r="C160" s="62"/>
+      <c r="D160" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E160" s="65" t="s">
+      <c r="E160" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="F160" s="65" t="s">
+      <c r="F160" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="G160" s="65" t="s">
+      <c r="G160" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="H160" s="65" t="s">
-        <v>301</v>
+      <c r="H160" s="62" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:8">
       <c r="A161" s="20"/>
       <c r="B161" s="20"/>
-      <c r="C161" s="65"/>
-      <c r="D161" s="65"/>
-      <c r="E161" s="65"/>
-      <c r="F161" s="65"/>
-      <c r="G161" s="65"/>
-      <c r="H161" s="65"/>
+      <c r="C161" s="62"/>
+      <c r="D161" s="62"/>
+      <c r="E161" s="62"/>
+      <c r="F161" s="62"/>
+      <c r="G161" s="62"/>
+      <c r="H161" s="62"/>
     </row>
     <row r="162" customHeight="1" spans="1:8">
-      <c r="A162" s="61"/>
-      <c r="B162" s="61"/>
-      <c r="C162" s="61"/>
-      <c r="D162" s="61"/>
-      <c r="E162" s="61"/>
-      <c r="F162" s="61"/>
-      <c r="G162" s="61"/>
-      <c r="H162" s="61"/>
+      <c r="A162" s="58"/>
+      <c r="B162" s="58"/>
+      <c r="C162" s="58"/>
+      <c r="D162" s="58"/>
+      <c r="E162" s="58"/>
+      <c r="F162" s="58"/>
+      <c r="G162" s="58"/>
+      <c r="H162" s="58"/>
     </row>
     <row r="163" customHeight="1" spans="1:8">
-      <c r="A163" s="48" t="s">
+      <c r="A163" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B163" s="48" t="s">
+      <c r="B163" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C163" s="48" t="s">
+      <c r="C163" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="48" t="s">
+      <c r="D163" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E163" s="48"/>
-      <c r="F163" s="48" t="s">
+      <c r="E163" s="45"/>
+      <c r="F163" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G163" s="48"/>
-      <c r="H163" s="48"/>
+      <c r="G163" s="45"/>
+      <c r="H163" s="45"/>
     </row>
     <row r="164" customHeight="1" spans="1:8">
-      <c r="A164" s="48"/>
-      <c r="B164" s="48"/>
-      <c r="C164" s="48"/>
-      <c r="D164" s="48" t="s">
+      <c r="A164" s="45"/>
+      <c r="B164" s="45"/>
+      <c r="C164" s="45"/>
+      <c r="D164" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E164" s="48" t="s">
+      <c r="E164" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F164" s="48" t="s">
+      <c r="F164" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G164" s="48" t="s">
+      <c r="G164" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H164" s="48" t="s">
+      <c r="H164" s="45" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:8">
       <c r="A165" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B165" s="20">
         <v>1091</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D165" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E165" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F165" s="20" t="s">
         <v>65</v>
@@ -8077,21 +8042,21 @@
       <c r="G166" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H166" s="32" t="s">
-        <v>305</v>
+      <c r="H166" s="30" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:8">
       <c r="A167" s="20"/>
       <c r="B167" s="20"/>
       <c r="C167" s="20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D167" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E167" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F167" s="20" t="s">
         <v>65</v>
@@ -8125,405 +8090,405 @@
       <c r="A169" s="20"/>
       <c r="B169" s="20"/>
       <c r="C169" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D169" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E169" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
-      <c r="H169" s="32"/>
+      <c r="H169" s="30"/>
     </row>
     <row r="170" ht="38.1" customHeight="1" spans="1:8">
       <c r="A170" s="20"/>
       <c r="B170" s="20"/>
       <c r="C170" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D170" s="20"/>
       <c r="E170" s="20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
-      <c r="H170" s="32"/>
+      <c r="H170" s="30"/>
     </row>
     <row r="171" ht="38.1" customHeight="1" spans="1:8">
       <c r="A171" s="20"/>
       <c r="B171" s="20"/>
       <c r="C171" s="20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D171" s="20"/>
       <c r="E171" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F171" s="20"/>
       <c r="G171" s="20"/>
-      <c r="H171" s="32"/>
+      <c r="H171" s="30"/>
     </row>
     <row r="172" ht="38.1" customHeight="1" spans="1:8">
       <c r="A172" s="20"/>
       <c r="B172" s="20"/>
       <c r="C172" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D172" s="20"/>
       <c r="E172" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
-      <c r="H172" s="32"/>
+      <c r="H172" s="30"/>
     </row>
     <row r="173" ht="38.1" customHeight="1" spans="1:8">
       <c r="A173" s="20"/>
       <c r="B173" s="20"/>
       <c r="C173" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D173" s="20"/>
       <c r="E173" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
-      <c r="H173" s="32"/>
+      <c r="H173" s="30"/>
     </row>
     <row r="174" ht="38.1" customHeight="1" spans="1:8">
       <c r="A174" s="20"/>
       <c r="B174" s="20"/>
       <c r="C174" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D174" s="20"/>
       <c r="E174" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F174" s="20"/>
       <c r="G174" s="20"/>
-      <c r="H174" s="32"/>
+      <c r="H174" s="30"/>
     </row>
     <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="61"/>
-      <c r="B175" s="61"/>
-      <c r="C175" s="61"/>
-      <c r="D175" s="61"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="61"/>
-      <c r="G175" s="61"/>
-      <c r="H175" s="61"/>
+      <c r="A175" s="58"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
     </row>
     <row r="176" customHeight="1" spans="1:8">
-      <c r="A176" s="48" t="s">
+      <c r="A176" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B176" s="48" t="s">
+      <c r="B176" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C176" s="48" t="s">
+      <c r="C176" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D176" s="48" t="s">
+      <c r="D176" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E176" s="48"/>
-      <c r="F176" s="48" t="s">
+      <c r="E176" s="45"/>
+      <c r="F176" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G176" s="48"/>
-      <c r="H176" s="48"/>
+      <c r="G176" s="45"/>
+      <c r="H176" s="45"/>
     </row>
     <row r="177" customHeight="1" spans="1:8">
-      <c r="A177" s="48"/>
-      <c r="B177" s="48"/>
-      <c r="C177" s="48"/>
-      <c r="D177" s="48" t="s">
+      <c r="A177" s="45"/>
+      <c r="B177" s="45"/>
+      <c r="C177" s="45"/>
+      <c r="D177" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E177" s="48" t="s">
+      <c r="E177" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F177" s="48" t="s">
+      <c r="F177" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G177" s="48" t="s">
+      <c r="G177" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H177" s="48" t="s">
+      <c r="H177" s="45" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="1:8">
-      <c r="A178" s="68" t="s">
-        <v>320</v>
-      </c>
-      <c r="B178" s="68">
+      <c r="A178" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="B178" s="65">
         <v>1096</v>
       </c>
-      <c r="C178" s="68" t="s">
-        <v>321</v>
-      </c>
-      <c r="D178" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E178" s="68" t="s">
+      <c r="C178" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="F178" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="G178" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="H178" s="68" t="s">
+      <c r="D178" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E178" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="F178" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G178" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="H178" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="1:8">
-      <c r="A179" s="68"/>
-      <c r="B179" s="68"/>
-      <c r="C179" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="D179" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E179" s="68" t="s">
+      <c r="A179" s="65"/>
+      <c r="B179" s="65"/>
+      <c r="C179" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="F179" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="G179" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="H179" s="68" t="s">
+      <c r="D179" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E179" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="F179" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G179" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="H179" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:8">
-      <c r="A180" s="61"/>
-      <c r="B180" s="61"/>
-      <c r="C180" s="61"/>
-      <c r="D180" s="61"/>
-      <c r="E180" s="61"/>
-      <c r="F180" s="61"/>
-      <c r="G180" s="61"/>
-      <c r="H180" s="61"/>
+      <c r="A180" s="58"/>
+      <c r="B180" s="58"/>
+      <c r="C180" s="58"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="58"/>
+      <c r="F180" s="58"/>
+      <c r="G180" s="58"/>
+      <c r="H180" s="58"/>
     </row>
     <row r="181" customHeight="1" spans="1:8">
-      <c r="A181" s="61"/>
-      <c r="B181" s="61"/>
-      <c r="C181" s="61"/>
-      <c r="D181" s="61"/>
-      <c r="E181" s="61"/>
-      <c r="F181" s="61"/>
-      <c r="G181" s="61"/>
-      <c r="H181" s="61"/>
-    </row>
-    <row r="182" s="44" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A182" s="48" t="s">
+      <c r="A181" s="58"/>
+      <c r="B181" s="58"/>
+      <c r="C181" s="58"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="58"/>
+      <c r="H181" s="58"/>
+    </row>
+    <row r="182" s="41" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A182" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B182" s="48" t="s">
+      <c r="B182" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C182" s="48" t="s">
+      <c r="C182" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D182" s="48" t="s">
+      <c r="D182" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E182" s="48"/>
-      <c r="F182" s="48" t="s">
+      <c r="E182" s="45"/>
+      <c r="F182" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G182" s="48"/>
-      <c r="H182" s="48"/>
-    </row>
-    <row r="183" s="44" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A183" s="48"/>
-      <c r="B183" s="48"/>
-      <c r="C183" s="48"/>
-      <c r="D183" s="48" t="s">
+      <c r="G182" s="45"/>
+      <c r="H182" s="45"/>
+    </row>
+    <row r="183" s="41" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A183" s="45"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="45"/>
+      <c r="D183" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E183" s="48" t="s">
+      <c r="E183" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F183" s="48" t="s">
+      <c r="F183" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G183" s="48" t="s">
+      <c r="G183" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H183" s="48" t="s">
+      <c r="H183" s="45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" s="44" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A184" s="34" t="s">
+    <row r="184" s="41" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A184" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B184" s="33">
+      <c r="B184" s="31">
         <v>1097</v>
       </c>
-      <c r="C184" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="D184" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E184" s="33" t="s">
+      <c r="C184" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="F184" s="33"/>
-      <c r="G184" s="33"/>
-      <c r="H184" s="33"/>
-    </row>
-    <row r="185" s="44" customFormat="1" ht="54" customHeight="1" spans="1:8">
-      <c r="A185" s="34"/>
-      <c r="B185" s="33"/>
-      <c r="C185" s="33"/>
-      <c r="D185" s="33" t="s">
+      <c r="D184" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E184" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="F184" s="31"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="31"/>
+    </row>
+    <row r="185" s="41" customFormat="1" ht="54" customHeight="1" spans="1:8">
+      <c r="A185" s="32"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E185" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="F185" s="33" t="s">
+      <c r="E185" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="F185" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G185" s="33" t="s">
+      <c r="G185" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="H185" s="34" t="s">
+      <c r="H185" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="186" s="41" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A186" s="32"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D186" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E186" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="F186" s="31"/>
+      <c r="G186" s="31"/>
+      <c r="H186" s="31"/>
+    </row>
+    <row r="187" s="41" customFormat="1" ht="74.1" customHeight="1" spans="1:8">
+      <c r="A187" s="32"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E187" s="31" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="186" s="44" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A186" s="34"/>
-      <c r="B186" s="33"/>
-      <c r="C186" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="D186" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E186" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="F186" s="33"/>
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
-    </row>
-    <row r="187" s="44" customFormat="1" ht="74.1" customHeight="1" spans="1:8">
-      <c r="A187" s="34"/>
-      <c r="B187" s="33"/>
-      <c r="C187" s="33"/>
-      <c r="D187" s="33" t="s">
+      <c r="F187" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G187" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H187" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="188" s="41" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A188" s="32"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="D188" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E188" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="F188" s="31"/>
+      <c r="G188" s="31"/>
+      <c r="H188" s="31"/>
+    </row>
+    <row r="189" s="41" customFormat="1" ht="84.9" customHeight="1" spans="1:8">
+      <c r="A189" s="32"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E187" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="F187" s="33" t="s">
+      <c r="E189" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="F189" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G187" s="33" t="s">
+      <c r="G189" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="H187" s="34" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="188" s="44" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A188" s="34"/>
-      <c r="B188" s="33"/>
-      <c r="C188" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="D188" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E188" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="F188" s="33"/>
-      <c r="G188" s="33"/>
-      <c r="H188" s="33"/>
-    </row>
-    <row r="189" s="44" customFormat="1" ht="84.9" customHeight="1" spans="1:8">
-      <c r="A189" s="34"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E189" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="F189" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="G189" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H189" s="34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="190" s="44" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A190" s="46"/>
-      <c r="B190" s="46"/>
-      <c r="C190" s="46"/>
-      <c r="D190" s="46"/>
-      <c r="E190" s="46"/>
-      <c r="F190" s="46"/>
-      <c r="G190" s="46"/>
-      <c r="H190" s="46"/>
+      <c r="H189" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="190" s="41" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A190" s="43"/>
+      <c r="B190" s="43"/>
+      <c r="C190" s="43"/>
+      <c r="D190" s="43"/>
+      <c r="E190" s="43"/>
+      <c r="F190" s="43"/>
+      <c r="G190" s="43"/>
+      <c r="H190" s="43"/>
     </row>
     <row r="191" customHeight="1" spans="1:8">
-      <c r="A191" s="48" t="s">
+      <c r="A191" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B191" s="48" t="s">
+      <c r="B191" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C191" s="48" t="s">
+      <c r="C191" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D191" s="48" t="s">
+      <c r="D191" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E191" s="48"/>
-      <c r="F191" s="48" t="s">
+      <c r="E191" s="45"/>
+      <c r="F191" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G191" s="48"/>
-      <c r="H191" s="48"/>
+      <c r="G191" s="45"/>
+      <c r="H191" s="45"/>
     </row>
     <row r="192" customHeight="1" spans="1:8">
-      <c r="A192" s="48"/>
-      <c r="B192" s="48"/>
-      <c r="C192" s="48"/>
-      <c r="D192" s="48" t="s">
+      <c r="A192" s="45"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E192" s="48" t="s">
+      <c r="E192" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F192" s="48" t="s">
+      <c r="F192" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G192" s="48" t="s">
+      <c r="G192" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H192" s="48" t="s">
+      <c r="H192" s="45" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8534,62 +8499,62 @@
       <c r="B193" s="20">
         <v>1110</v>
       </c>
-      <c r="C193" s="69" t="s">
-        <v>335</v>
-      </c>
-      <c r="D193" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="E193" s="69" t="s">
+      <c r="C193" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="F193" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="G193" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="H193" s="69" t="s">
+      <c r="D193" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E193" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="F193" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="G193" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="H193" s="66" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="194" ht="90" customHeight="1" spans="1:8">
       <c r="A194" s="20"/>
       <c r="B194" s="20"/>
-      <c r="C194" s="69"/>
-      <c r="D194" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="E194" s="69"/>
-      <c r="F194" s="69" t="s">
+      <c r="C194" s="66"/>
+      <c r="D194" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="E194" s="66"/>
+      <c r="F194" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G194" s="69" t="s">
+      <c r="G194" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H194" s="70" t="s">
-        <v>338</v>
+      <c r="H194" s="67" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="1:8">
       <c r="A195" s="20"/>
       <c r="B195" s="20"/>
       <c r="C195" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D195" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="F195" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G195" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H195" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="F195" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G195" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H195" s="27" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8607,29 +8572,29 @@
       <c r="G196" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H196" s="32" t="s">
-        <v>341</v>
+      <c r="H196" s="30" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="1:8">
       <c r="A197" s="20"/>
       <c r="B197" s="20"/>
       <c r="C197" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D197" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E197" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="F197" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G197" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H197" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="F197" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G197" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H197" s="27" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8638,7 +8603,7 @@
       <c r="B198" s="20"/>
       <c r="C198" s="20"/>
       <c r="D198" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E198" s="20"/>
       <c r="F198" s="20" t="s">
@@ -8647,67 +8612,67 @@
       <c r="G198" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H198" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="L198" s="61"/>
-      <c r="M198" s="61"/>
-      <c r="N198" s="61"/>
-      <c r="O198" s="61"/>
-      <c r="P198" s="61"/>
-      <c r="Q198" s="61"/>
-      <c r="R198" s="61"/>
-      <c r="S198" s="61"/>
+      <c r="H198" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="L198" s="58"/>
+      <c r="M198" s="58"/>
+      <c r="N198" s="58"/>
+      <c r="O198" s="58"/>
+      <c r="P198" s="58"/>
+      <c r="Q198" s="58"/>
+      <c r="R198" s="58"/>
+      <c r="S198" s="58"/>
     </row>
     <row r="199" customHeight="1" spans="1:19">
       <c r="A199" s="20"/>
       <c r="B199" s="20"/>
       <c r="C199" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D199" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E199" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="F199" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G199" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H199" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="L199" s="61"/>
-      <c r="M199" s="61"/>
-      <c r="N199" s="61"/>
-      <c r="O199" s="61"/>
-      <c r="P199" s="61"/>
-      <c r="Q199" s="61"/>
-      <c r="R199" s="61"/>
-      <c r="S199" s="61"/>
+        <v>348</v>
+      </c>
+      <c r="F199" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G199" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H199" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="L199" s="58"/>
+      <c r="M199" s="58"/>
+      <c r="N199" s="58"/>
+      <c r="O199" s="58"/>
+      <c r="P199" s="58"/>
+      <c r="Q199" s="58"/>
+      <c r="R199" s="58"/>
+      <c r="S199" s="58"/>
     </row>
     <row r="200" customHeight="1" spans="1:19">
       <c r="A200" s="20"/>
       <c r="B200" s="20"/>
       <c r="C200" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D200" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E200" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="F200" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G200" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H200" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="F200" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G200" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H200" s="27" t="s">
         <v>65</v>
       </c>
       <c r="L200" s="7"/>
@@ -8722,18 +8687,18 @@
     <row r="201" customHeight="1" spans="1:19">
       <c r="A201" s="20"/>
       <c r="B201" s="20"/>
-      <c r="C201" s="30" t="s">
-        <v>350</v>
+      <c r="C201" s="27" t="s">
+        <v>351</v>
       </c>
       <c r="D201" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E201" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="F201" s="30"/>
-      <c r="G201" s="30"/>
-      <c r="H201" s="30"/>
+        <v>352</v>
+      </c>
+      <c r="F201" s="27"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="27"/>
       <c r="L201" s="7"/>
       <c r="M201" s="8"/>
       <c r="N201" s="8"/>
@@ -8746,23 +8711,23 @@
     <row r="202" customHeight="1" spans="1:19">
       <c r="A202" s="20"/>
       <c r="B202" s="20"/>
-      <c r="C202" s="30" t="s">
-        <v>352</v>
+      <c r="C202" s="27" t="s">
+        <v>353</v>
       </c>
       <c r="D202" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E202" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="F202" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G202" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H202" s="31" t="s">
+      <c r="E202" s="27" t="s">
         <v>354</v>
+      </c>
+      <c r="F202" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G202" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H202" s="28" t="s">
+        <v>355</v>
       </c>
       <c r="L202" s="7"/>
       <c r="M202" s="8"/>
@@ -8776,22 +8741,22 @@
     <row r="203" customHeight="1" spans="1:19">
       <c r="A203" s="20"/>
       <c r="B203" s="20"/>
-      <c r="C203" s="30" t="s">
-        <v>355</v>
+      <c r="C203" s="27" t="s">
+        <v>356</v>
       </c>
       <c r="D203" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E203" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="F203" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G203" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H203" s="31"/>
+      <c r="E203" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="F203" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G203" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H203" s="28"/>
       <c r="L203" s="7"/>
       <c r="M203" s="8"/>
       <c r="N203" s="8"/>
@@ -8804,22 +8769,22 @@
     <row r="204" customHeight="1" spans="1:19">
       <c r="A204" s="20"/>
       <c r="B204" s="20"/>
-      <c r="C204" s="30" t="s">
-        <v>357</v>
+      <c r="C204" s="27" t="s">
+        <v>358</v>
       </c>
       <c r="D204" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E204" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="F204" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G204" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H204" s="31"/>
+        <v>359</v>
+      </c>
+      <c r="F204" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G204" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H204" s="28"/>
       <c r="L204" s="7"/>
       <c r="M204" s="8"/>
       <c r="N204" s="8"/>
@@ -8832,22 +8797,22 @@
     <row r="205" customHeight="1" spans="1:19">
       <c r="A205" s="20"/>
       <c r="B205" s="20"/>
-      <c r="C205" s="30" t="s">
-        <v>359</v>
+      <c r="C205" s="27" t="s">
+        <v>360</v>
       </c>
       <c r="D205" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E205" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="F205" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G205" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H205" s="31"/>
+      <c r="E205" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="F205" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G205" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H205" s="28"/>
       <c r="L205" s="7"/>
       <c r="M205" s="8"/>
       <c r="N205" s="8"/>
@@ -8860,82 +8825,82 @@
     <row r="206" customHeight="1" spans="1:8">
       <c r="A206" s="20"/>
       <c r="B206" s="20"/>
-      <c r="C206" s="30" t="s">
-        <v>361</v>
+      <c r="C206" s="27" t="s">
+        <v>362</v>
       </c>
       <c r="D206" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E206" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="F206" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G206" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H206" s="31"/>
+      <c r="E206" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="F206" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G206" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H206" s="28"/>
     </row>
     <row r="207" customHeight="1" spans="1:8">
       <c r="A207" s="20"/>
       <c r="B207" s="20"/>
-      <c r="C207" s="30" t="s">
-        <v>363</v>
+      <c r="C207" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="D207" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E207" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="F207" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G207" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H207" s="31"/>
+      <c r="E207" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="F207" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G207" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H207" s="28"/>
     </row>
     <row r="208" customHeight="1" spans="1:8">
       <c r="A208" s="20"/>
       <c r="B208" s="20"/>
-      <c r="C208" s="30" t="s">
-        <v>365</v>
+      <c r="C208" s="27" t="s">
+        <v>366</v>
       </c>
       <c r="D208" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E208" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="F208" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G208" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H208" s="31"/>
+      <c r="E208" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="F208" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G208" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H208" s="28"/>
     </row>
     <row r="210" customHeight="1" spans="1:8">
-      <c r="A210" s="61"/>
-      <c r="B210" s="61"/>
-      <c r="C210" s="61"/>
-      <c r="D210" s="61"/>
-      <c r="E210" s="61"/>
-      <c r="F210" s="61"/>
-      <c r="G210" s="61"/>
-      <c r="H210" s="61"/>
+      <c r="A210" s="58"/>
+      <c r="B210" s="58"/>
+      <c r="C210" s="58"/>
+      <c r="D210" s="58"/>
+      <c r="E210" s="58"/>
+      <c r="F210" s="58"/>
+      <c r="G210" s="58"/>
+      <c r="H210" s="58"/>
     </row>
     <row r="211" customHeight="1" spans="1:8">
-      <c r="A211" s="61"/>
-      <c r="B211" s="61"/>
-      <c r="C211" s="61"/>
-      <c r="D211" s="61"/>
-      <c r="E211" s="61"/>
-      <c r="F211" s="61"/>
-      <c r="G211" s="61"/>
-      <c r="H211" s="61"/>
+      <c r="A211" s="58"/>
+      <c r="B211" s="58"/>
+      <c r="C211" s="58"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="58"/>
+      <c r="F211" s="58"/>
+      <c r="G211" s="58"/>
+      <c r="H211" s="58"/>
     </row>
     <row r="212" customHeight="1" spans="1:8">
       <c r="A212" s="7"/>
@@ -9183,10 +9148,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H765"/>
+  <dimension ref="A1:H762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -9252,13 +9217,13 @@
         <v>2000</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>65</v>
@@ -9275,7 +9240,7 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>67</v>
@@ -9287,7 +9252,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" ht="34.5" customHeight="1" spans="8:8">
@@ -9340,19 +9305,19 @@
     </row>
     <row r="9" ht="34.5" customHeight="1" spans="1:8">
       <c r="A9" s="17" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B9" s="18">
         <v>2010</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>65</v>
@@ -9381,7 +9346,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" ht="27.9" customHeight="1"/>
@@ -9435,13 +9400,13 @@
         <v>2020</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>65</v>
@@ -9450,7 +9415,7 @@
         <v>65</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" ht="27.9" customHeight="1" spans="1:8">
@@ -9522,13 +9487,13 @@
         <v>2030</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>65</v>
@@ -9537,7 +9502,7 @@
         <v>65</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" ht="27.9" customHeight="1" spans="1:8">
@@ -9557,7 +9522,7 @@
         <v>69</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" ht="126" customHeight="1" spans="1:8">
@@ -9575,7 +9540,7 @@
         <v>69</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" ht="27.9" customHeight="1"/>
@@ -9629,13 +9594,13 @@
         <v>2040</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>65</v>
@@ -9651,13 +9616,13 @@
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>65</v>
@@ -9673,13 +9638,13 @@
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>65</v>
@@ -9695,13 +9660,13 @@
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>65</v>
@@ -9730,7 +9695,7 @@
         <v>117</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" ht="27.9" customHeight="1" spans="1:8">
@@ -9750,14 +9715,14 @@
         <v>117</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" ht="27.9" customHeight="1" spans="1:8">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>63</v>
@@ -9792,7 +9757,7 @@
         <v>117</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" ht="27.9" customHeight="1" spans="1:8">
@@ -9812,14 +9777,14 @@
         <v>69</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" ht="27.9" customHeight="1" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>63</v>
@@ -9841,7 +9806,7 @@
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>63</v>
@@ -9863,13 +9828,13 @@
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>65</v>
@@ -9885,7 +9850,7 @@
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>63</v>
@@ -9900,7 +9865,7 @@
         <v>65</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" ht="101.25" customHeight="1" spans="1:8">
@@ -9908,7 +9873,7 @@
       <c r="B38" s="14"/>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>67</v>
@@ -9966,13 +9931,13 @@
     </row>
     <row r="42" ht="27.9" customHeight="1" spans="1:8">
       <c r="A42" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B42" s="13">
         <v>2050</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>63</v>
@@ -9994,11 +9959,11 @@
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>65</v>
@@ -10014,11 +9979,11 @@
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>65</v>
@@ -10034,11 +9999,11 @@
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>65</v>
@@ -10054,7 +10019,7 @@
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
@@ -10074,7 +10039,7 @@
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
@@ -10094,11 +10059,11 @@
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>65</v>
@@ -10114,11 +10079,11 @@
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>65</v>
@@ -10176,60 +10141,60 @@
       </c>
     </row>
     <row r="53" ht="27.9" hidden="1" customHeight="1" spans="1:8">
-      <c r="A53" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="B53" s="23">
+      <c r="A53" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B53" s="13">
         <v>2060</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24" t="s">
+      <c r="C53" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H53" s="24" t="s">
+      <c r="D53" s="23"/>
+      <c r="E53" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" ht="27.9" hidden="1" customHeight="1" spans="1:8">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="F54" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H54" s="24" t="s">
+      <c r="D54" s="23"/>
+      <c r="E54" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" ht="27.9" hidden="1" customHeight="1" spans="1:8">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F55" s="14" t="s">
         <v>65</v>
@@ -10242,11 +10207,11 @@
       </c>
     </row>
     <row r="56" ht="74.25" hidden="1" customHeight="1" spans="1:8">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>67</v>
@@ -10258,164 +10223,170 @@
         <v>69</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="26" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="F57" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H57" s="26" t="s">
+      <c r="D57" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" ht="188.1" customHeight="1" spans="1:8">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H58" s="27" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="59" ht="68" customHeight="1" spans="1:8">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="28" t="s">
+      <c r="H58" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28" t="s">
+    </row>
+    <row r="59" ht="27.9" customHeight="1"/>
+    <row r="60" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A60" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A62" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="B62" s="14">
+        <v>2080</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" ht="42" customHeight="1" spans="1:8">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G59" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="60" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-    </row>
-    <row r="61" ht="116" customHeight="1" spans="1:8">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="28" t="s">
+      <c r="G63" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" ht="225" customHeight="1" spans="1:8">
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F61" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G61" s="28" t="s">
+      <c r="F64" s="27"/>
+      <c r="G64" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H61" s="29" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="62" ht="27.9" customHeight="1"/>
-    <row r="63" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A63" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A64" s="10"/>
-      <c r="B64" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>4</v>
+      <c r="H64" s="28" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="65" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="B65" s="14">
-        <v>2080</v>
-      </c>
-      <c r="C65" s="14" t="s">
+      <c r="D65" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="D65" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>436</v>
-      </c>
       <c r="F65" s="14" t="s">
         <v>65</v>
       </c>
@@ -10426,636 +10397,634 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" ht="42" customHeight="1" spans="1:8">
+    <row r="66" ht="35.25" customHeight="1" spans="1:8">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>69</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="67" ht="225" customHeight="1" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67" ht="27.9" customHeight="1" spans="1:8">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="H67" s="31" t="s">
-        <v>237</v>
+      <c r="C67" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="68" ht="27.9" customHeight="1" spans="1:8">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="14" t="s">
-        <v>438</v>
-      </c>
+      <c r="C68" s="14"/>
       <c r="D68" s="14" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E68" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="F68" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" ht="35.25" customHeight="1" spans="1:8">
+    </row>
+    <row r="69" ht="42.9" customHeight="1" spans="1:8">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" s="14" t="s">
+      <c r="D69" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" s="14" t="s">
+      <c r="F69" s="20"/>
+      <c r="G69" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="70" ht="27.9" customHeight="1" spans="1:8">
+      <c r="H69" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" ht="27.75" customHeight="1" spans="1:8">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E70" s="14" t="s">
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14" t="s">
         <v>442</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="71" ht="27.9" customHeight="1" spans="1:8">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+      <c r="C71" s="13"/>
       <c r="D71" s="14" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F71" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" s="13" t="s">
+      <c r="F71" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G71" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H71" s="13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="72" ht="42.9" customHeight="1" spans="1:8">
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72" ht="27.9" customHeight="1" spans="1:8">
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H72" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" ht="27.75" customHeight="1" spans="1:8">
+      <c r="C72" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" ht="107.25" customHeight="1" spans="1:8">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="14"/>
+      <c r="D73" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" s="13" t="s">
         <v>444</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="74" ht="27.9" customHeight="1" spans="1:8">
       <c r="A74" s="13"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="14" t="s">
+        <v>445</v>
+      </c>
       <c r="D74" s="14" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>67</v>
+        <v>446</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H74" s="14"/>
-    </row>
-    <row r="75" ht="27.9" customHeight="1" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" ht="51.75" customHeight="1" spans="1:8">
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="14"/>
+      <c r="D75" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H75" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="D75" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" ht="107.25" customHeight="1" spans="1:8">
+    </row>
+    <row r="76" ht="27.9" customHeight="1" spans="1:8">
       <c r="A76" s="13"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
+      <c r="C76" s="14" t="s">
+        <v>448</v>
+      </c>
       <c r="D76" s="14" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="77" ht="27.9" customHeight="1" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" ht="54" customHeight="1" spans="1:8">
       <c r="A77" s="13"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="14" t="s">
-        <v>449</v>
-      </c>
+      <c r="C77" s="14"/>
       <c r="D77" s="14" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E77" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H77" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H77" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" ht="51.75" customHeight="1" spans="1:8">
+    </row>
+    <row r="78" ht="54" customHeight="1" spans="1:8">
       <c r="A78" s="13"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14" t="s">
+        <v>297</v>
+      </c>
       <c r="D78" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="79" ht="27.9" customHeight="1" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" ht="54" customHeight="1" spans="1:8">
       <c r="A79" s="13"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="14" t="s">
-        <v>452</v>
-      </c>
+      <c r="C79" s="14"/>
       <c r="D79" s="14" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>453</v>
+        <v>67</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H79" s="14" t="s">
-        <v>65</v>
+        <v>117</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="80" ht="54" customHeight="1" spans="1:8">
       <c r="A80" s="13"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14" t="s">
+        <v>300</v>
+      </c>
       <c r="D80" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G80" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>454</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="13"/>
     </row>
     <row r="81" ht="54" customHeight="1" spans="1:8">
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="14" t="s">
-        <v>296</v>
-      </c>
+      <c r="C81" s="14"/>
       <c r="D81" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="82" ht="54" customHeight="1" spans="1:8">
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14" t="s">
+        <v>290</v>
+      </c>
       <c r="D82" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>455</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" ht="54" customHeight="1" spans="1:8">
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="14" t="s">
-        <v>299</v>
-      </c>
+      <c r="C83" s="14"/>
       <c r="D83" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="84" ht="54" customHeight="1" spans="1:8">
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14" t="s">
+        <v>455</v>
+      </c>
       <c r="D84" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>457</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" ht="54" customHeight="1" spans="1:8">
       <c r="A85" s="13"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="14" t="s">
-        <v>289</v>
-      </c>
+      <c r="C85" s="14"/>
       <c r="D85" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="13"/>
-    </row>
-    <row r="86" ht="54" customHeight="1" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="86" ht="27.9" customHeight="1" spans="1:8">
       <c r="A86" s="13"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="14" t="s">
+        <v>457</v>
+      </c>
       <c r="D86" s="14" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>67</v>
+        <v>458</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="87" ht="54" customHeight="1" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" ht="53.25" customHeight="1" spans="1:8">
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="14"/>
+      <c r="D87" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H87" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="D87" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="13"/>
-    </row>
-    <row r="88" ht="54" customHeight="1" spans="1:8">
+    </row>
+    <row r="88" ht="27.9" customHeight="1" spans="1:8">
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H88" s="13" t="s">
+      <c r="C88" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" s="31" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="89" ht="27.9" customHeight="1" spans="1:8">
+      <c r="F88" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" ht="75.9" customHeight="1" spans="1:8">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="31"/>
+      <c r="D89" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H89" s="32" t="s">
         <v>461</v>
       </c>
-      <c r="D89" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E89" s="14" t="s">
+    </row>
+    <row r="90" ht="27.9" customHeight="1"/>
+    <row r="91" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A91" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+    </row>
+    <row r="92" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A92" s="10"/>
+      <c r="B92" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A93" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="F89" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H89" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" ht="53.25" customHeight="1" spans="1:8">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E90" s="14" t="s">
+      <c r="B93" s="33">
+        <v>2400</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" ht="60.9" customHeight="1" spans="1:8">
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E94" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F90" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G90" s="14" t="s">
+      <c r="F94" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G94" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H90" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="91" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="G91" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H91" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" ht="75.9" customHeight="1" spans="1:8">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" s="33" t="s">
+      <c r="H94" s="35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="95" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H95" s="36" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="96" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+    </row>
+    <row r="97" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="E97" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F92" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="G92" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H92" s="34" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="93" ht="27.9" customHeight="1"/>
-    <row r="94" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A94" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-    </row>
-    <row r="95" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A95" s="10"/>
-      <c r="B95" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A96" s="35" t="s">
-        <v>466</v>
-      </c>
-      <c r="B96" s="35">
-        <v>2400</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="D96" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E96" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="F96" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G96" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H96" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" ht="60.9" customHeight="1" spans="1:8">
-      <c r="A97" s="37"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="E97" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F97" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G97" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="H97" s="38" t="s">
-        <v>338</v>
+      <c r="F97" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="98" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A98" s="37"/>
-      <c r="B98" s="37"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="34"/>
       <c r="C98" s="13" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F98" s="14" t="s">
         <v>65</v>
@@ -11063,32 +11032,38 @@
       <c r="G98" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H98" s="39" t="s">
-        <v>471</v>
+      <c r="H98" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="99" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A99" s="37"/>
-      <c r="B99" s="37"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
       <c r="C99" s="13" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
+        <v>475</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="100" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A100" s="37"/>
-      <c r="B100" s="37"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
       <c r="C100" s="13"/>
       <c r="D100" s="14" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E100" s="14" t="s">
         <v>67</v>
@@ -11097,471 +11072,410 @@
         <v>68</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="101" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A101" s="37"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="13" t="s">
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H102" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="D101" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H101" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A102" s="37"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E102" s="14" t="s">
+    </row>
+    <row r="103" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="F102" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H102" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="103" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A103" s="37"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="13"/>
       <c r="D103" s="14" t="s">
-        <v>474</v>
+        <v>63</v>
       </c>
       <c r="E103" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" ht="51" customHeight="1" spans="1:8">
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E104" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F103" s="14" t="s">
+      <c r="F104" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G103" s="14" t="s">
+      <c r="G104" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H103" s="14" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="104" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A104" s="37"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="14" t="s">
+      <c r="H104" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="D104" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E104" s="14" t="s">
+    </row>
+    <row r="105" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="D105" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E105" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="F104" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H104" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="105" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E105" s="14" t="s">
+      <c r="F105" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H105" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F106" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="14" t="s">
+      <c r="G106" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H105" s="14" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="106" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A106" s="37"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="14" t="s">
+      <c r="H106" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="D106" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E106" s="14" t="s">
+    </row>
+    <row r="107" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="F106" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H106" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="107" ht="51" customHeight="1" spans="1:8">
-      <c r="A107" s="37"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="E107" s="14" t="s">
+      <c r="D107" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="F107" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G107" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H107" s="37" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="108" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="E108" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F108" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H108" s="30" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="109" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="D109" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F109" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G109" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H109" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" ht="62.1" customHeight="1" spans="1:8">
+      <c r="A110" s="34"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="E110" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G107" s="14" t="s">
+      <c r="G110" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H107" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="108" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="D108" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E108" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="F108" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G108" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H108" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A109" s="37"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="E109" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F109" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="G109" s="41" t="s">
+      <c r="H110" s="37" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="111" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="D111" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E111" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="F111" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H111" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A112" s="34"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D112" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E112" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="F112" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G112" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H112" s="37" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="113" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A113" s="39"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="D113" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E113" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="F113" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H113" s="37" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="114" ht="27.9" customHeight="1"/>
+    <row r="115" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A115" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+    </row>
+    <row r="116" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A116" s="10"/>
+      <c r="B116" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A117" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" s="14">
+        <v>2090</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+    </row>
+    <row r="118" ht="88.5" customHeight="1" spans="1:8">
+      <c r="A118" s="40"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G118" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H109" s="41" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="110" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="D110" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E110" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="F110" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G110" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H110" s="40" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="111" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="E111" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F111" s="20" t="s">
+      <c r="H118" s="13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="119" ht="27.9" customHeight="1" spans="1:8">
+      <c r="A119" s="40"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+    </row>
+    <row r="120" ht="76.5" customHeight="1" spans="1:8">
+      <c r="A120" s="40"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="F120" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G111" s="20" t="s">
+      <c r="G120" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H111" s="32" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="112" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="D112" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E112" s="40" t="s">
-        <v>492</v>
-      </c>
-      <c r="F112" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G112" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H112" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="113" ht="62.1" customHeight="1" spans="1:8">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="E113" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F113" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="G113" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H113" s="40" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="114" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A114" s="37"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="D114" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E114" s="40" t="s">
-        <v>495</v>
-      </c>
-      <c r="F114" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G114" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H114" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="115" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="D115" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E115" s="40" t="s">
-        <v>497</v>
-      </c>
-      <c r="F115" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G115" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H115" s="40" t="s">
+      <c r="H120" s="13" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="116" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A116" s="42"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="D116" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E116" s="40" t="s">
-        <v>500</v>
-      </c>
-      <c r="F116" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G116" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H116" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="117" ht="27.9" customHeight="1"/>
-    <row r="118" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A118" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-    </row>
-    <row r="119" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A119" s="10"/>
-      <c r="B119" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C119" s="11"/>
-      <c r="D119" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A120" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B120" s="14">
-        <v>2090</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-    </row>
-    <row r="121" ht="88.5" customHeight="1" spans="1:8">
-      <c r="A121" s="43"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G121" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="122" ht="27.9" customHeight="1" spans="1:8">
-      <c r="A122" s="43"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-    </row>
-    <row r="123" ht="76.5" customHeight="1" spans="1:8">
-      <c r="A123" s="43"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G123" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>502</v>
-      </c>
-    </row>
+    <row r="121" ht="27.9" customHeight="1"/>
+    <row r="122" ht="27.9" customHeight="1"/>
+    <row r="123" ht="27.9" customHeight="1"/>
     <row r="124" ht="27.9" customHeight="1"/>
     <row r="125" ht="27.9" customHeight="1"/>
     <row r="126" ht="27.9" customHeight="1"/>
@@ -12201,11 +12115,8 @@
     <row r="760" ht="27.9" customHeight="1"/>
     <row r="761" ht="27.9" customHeight="1"/>
     <row r="762" ht="27.9" customHeight="1"/>
-    <row r="763" ht="27.9" customHeight="1"/>
-    <row r="764" ht="27.9" customHeight="1"/>
-    <row r="765" ht="27.9" customHeight="1"/>
   </sheetData>
-  <mergeCells count="108">
+  <mergeCells count="107">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="D7:E7"/>
@@ -12220,12 +12131,12 @@
     <mergeCell ref="F40:H40"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="F51:H51"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:H115"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A7:A8"/>
@@ -12239,13 +12150,13 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A89"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A113"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A120"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B7:B8"/>
@@ -12259,13 +12170,13 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B92"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B116"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B89"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B113"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B120"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C7:C8"/>
@@ -12281,39 +12192,38 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
     <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C93:C94"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C119:C120"/>
     <mergeCell ref="D42:D49"/>
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H70:H71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12352,11 +12262,11 @@
         <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -12393,13 +12303,13 @@
         <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:7">
@@ -12412,13 +12322,13 @@
         <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1"/>
@@ -12433,11 +12343,11 @@
         <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -12474,7 +12384,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>65</v>
@@ -12493,7 +12403,7 @@
         <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>65</v>
@@ -12514,11 +12424,11 @@
         <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -12555,7 +12465,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>65</v>
@@ -12574,7 +12484,7 @@
         <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>65</v>
@@ -12593,7 +12503,7 @@
         <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>65</v>
@@ -12612,7 +12522,7 @@
         <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>65</v>
@@ -12633,11 +12543,11 @@
         <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -12674,7 +12584,7 @@
         <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>65</v>
@@ -12693,7 +12603,7 @@
         <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>65</v>
@@ -12712,7 +12622,7 @@
         <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>65</v>
@@ -12731,7 +12641,7 @@
         <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>65</v>
@@ -12752,11 +12662,11 @@
         <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -12793,7 +12703,7 @@
         <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>65</v>
@@ -12812,7 +12722,7 @@
         <v>63</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>65</v>
@@ -12831,13 +12741,13 @@
         <v>63</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:7">
@@ -12850,7 +12760,7 @@
         <v>63</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>65</v>
@@ -12869,7 +12779,7 @@
         <v>63</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>65</v>
@@ -12888,7 +12798,7 @@
         <v>63</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>65</v>
@@ -12907,7 +12817,7 @@
         <v>63</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>65</v>
@@ -12926,7 +12836,7 @@
         <v>63</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>65</v>
@@ -12953,11 +12863,11 @@
         <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -12994,7 +12904,7 @@
         <v>63</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>65</v>
@@ -13013,7 +12923,7 @@
         <v>63</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>65</v>
@@ -13032,13 +12942,13 @@
         <v>63</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:7">
@@ -13051,13 +12961,13 @@
         <v>63</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" ht="30" customHeight="1"/>
@@ -13072,11 +12982,11 @@
         <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -13113,7 +13023,7 @@
         <v>63</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>65</v>
@@ -13132,7 +13042,7 @@
         <v>63</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>65</v>
@@ -13151,13 +13061,13 @@
         <v>63</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:7">
@@ -13170,13 +13080,13 @@
         <v>63</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:7">
@@ -13189,7 +13099,7 @@
         <v>63</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>65</v>
@@ -13208,7 +13118,7 @@
         <v>63</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>65</v>
@@ -13227,7 +13137,7 @@
         <v>63</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>65</v>
@@ -13240,13 +13150,13 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>65</v>
@@ -13259,13 +13169,13 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>65</v>
@@ -13278,13 +13188,13 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>65</v>
@@ -13297,13 +13207,13 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>65</v>
@@ -13316,19 +13226,19 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="1:7">
@@ -13336,16 +13246,16 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1" spans="1:7">
@@ -13353,29 +13263,29 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" ht="30" customHeight="1" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>65</v>
@@ -13394,7 +13304,7 @@
         <v>63</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>65</v>
@@ -13415,11 +13325,11 @@
         <v>54</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G62" s="2"/>
     </row>
@@ -13444,19 +13354,19 @@
     </row>
     <row r="64" ht="30" customHeight="1" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B64" s="1">
         <v>1070</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>65</v>
@@ -13469,13 +13379,13 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>65</v>
@@ -13496,11 +13406,11 @@
         <v>54</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G67" s="2"/>
     </row>
@@ -13537,7 +13447,7 @@
         <v>63</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>65</v>
@@ -13556,7 +13466,7 @@
         <v>63</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>65</v>
@@ -13575,7 +13485,7 @@
         <v>63</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>65</v>
@@ -13594,7 +13504,7 @@
         <v>63</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>65</v>
@@ -13607,38 +13517,38 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" ht="30" customHeight="1" spans="1:7">
@@ -13651,26 +13561,26 @@
         <v>63</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76" ht="30" customHeight="1" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>65</v>
@@ -13683,13 +13593,13 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>65</v>
@@ -13702,13 +13612,13 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>65</v>
@@ -13721,13 +13631,13 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>65</v>
@@ -13740,13 +13650,13 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>65</v>
@@ -13759,13 +13669,13 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>65</v>
@@ -13778,13 +13688,13 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>65</v>
@@ -13797,13 +13707,13 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>65</v>
@@ -13816,13 +13726,13 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>65</v>
@@ -13835,13 +13745,13 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>65</v>
@@ -13854,13 +13764,13 @@
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>65</v>
@@ -13873,13 +13783,13 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>65</v>
@@ -13892,19 +13802,19 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="89" ht="30" customHeight="1"/>
@@ -13919,11 +13829,11 @@
         <v>54</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G90" s="2"/>
     </row>
@@ -13948,19 +13858,19 @@
     </row>
     <row r="92" ht="30" customHeight="1" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B92" s="1">
         <v>1100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>65</v>
@@ -14664,11 +14574,11 @@
         <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -14693,19 +14603,19 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B3" s="1">
         <v>2000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>65</v>
@@ -14716,30 +14626,30 @@
     </row>
     <row r="4" ht="30" customHeight="1" spans="3:7">
       <c r="C4" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="3:7">
       <c r="C5" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>65</v>
@@ -14750,59 +14660,59 @@
     </row>
     <row r="6" ht="27.9" customHeight="1" spans="3:7">
       <c r="C6" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" ht="27.9" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" ht="27.9" customHeight="1" spans="3:7">
       <c r="C8" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" ht="27.9" customHeight="1" spans="3:7">
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>65</v>
@@ -14813,74 +14723,74 @@
     </row>
     <row r="10" ht="27.9" customHeight="1" spans="3:7">
       <c r="C10" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" ht="27.9" customHeight="1" spans="4:5">
       <c r="D11" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" ht="27.9" customHeight="1" spans="5:5">
       <c r="E12" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" ht="27.9" customHeight="1" spans="5:5">
       <c r="E13" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" ht="27.9" customHeight="1" spans="5:5">
       <c r="E14" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" ht="27.9" customHeight="1" spans="5:5">
       <c r="E15" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" ht="27.9" customHeight="1" spans="3:7">
       <c r="C16" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" ht="27.9" customHeight="1" spans="7:7">
       <c r="G17" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" ht="27.9" customHeight="1" spans="7:7">
       <c r="G18" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="7:7">
@@ -14897,11 +14807,11 @@
         <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -14926,19 +14836,19 @@
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B22" s="1">
         <v>2010</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>65</v>
@@ -14949,13 +14859,13 @@
     </row>
     <row r="23" ht="30" customHeight="1" spans="3:7">
       <c r="C23" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>65</v>
@@ -14966,13 +14876,13 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C24" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>65</v>
@@ -14983,13 +14893,13 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C25" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>65</v>
@@ -15000,13 +14910,13 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C26" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>65</v>
@@ -15017,13 +14927,13 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C27" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>65</v>
@@ -15034,13 +14944,13 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C28" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>65</v>
@@ -15051,13 +14961,13 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C29" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>65</v>
@@ -15078,11 +14988,11 @@
         <v>54</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G31" s="2"/>
     </row>
@@ -15107,19 +15017,19 @@
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B33" s="1">
         <v>2020</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>65</v>
@@ -15130,10 +15040,10 @@
     </row>
     <row r="34" ht="30" customHeight="1" spans="3:7">
       <c r="C34" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>65</v>
@@ -15154,11 +15064,11 @@
         <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -15183,19 +15093,19 @@
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B38" s="1">
         <v>2030</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>65</v>
@@ -15206,10 +15116,10 @@
     </row>
     <row r="39" ht="30" customHeight="1" spans="3:7">
       <c r="C39" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>65</v>
@@ -15230,11 +15140,11 @@
         <v>54</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -15259,19 +15169,19 @@
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B43" s="1">
         <v>2030</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>65</v>
@@ -15282,13 +15192,13 @@
     </row>
     <row r="44" ht="30" customHeight="1" spans="3:7">
       <c r="C44" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>65</v>
@@ -15299,13 +15209,13 @@
     </row>
     <row r="45" ht="30" customHeight="1" spans="3:7">
       <c r="C45" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>65</v>
@@ -15316,27 +15226,27 @@
     </row>
     <row r="46" ht="30" customHeight="1" spans="3:7">
       <c r="C46" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="4:7">
       <c r="D47" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>65</v>
@@ -15347,27 +15257,27 @@
     </row>
     <row r="48" ht="30" customHeight="1" spans="3:7">
       <c r="C48" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="4:7">
       <c r="D49" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>65</v>
@@ -15378,13 +15288,13 @@
     </row>
     <row r="50" ht="30" customHeight="1" spans="3:7">
       <c r="C50" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>65</v>
@@ -15395,13 +15305,13 @@
     </row>
     <row r="51" ht="30" customHeight="1" spans="3:7">
       <c r="C51" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>65</v>
@@ -15412,13 +15322,13 @@
     </row>
     <row r="52" ht="30" customHeight="1" spans="3:7">
       <c r="C52" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>65</v>
@@ -15439,11 +15349,11 @@
         <v>54</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G54" s="2"/>
     </row>
@@ -15468,42 +15378,42 @@
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B56" s="1">
         <v>2080</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="3:7">
       <c r="C57" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1"/>
@@ -15518,11 +15428,11 @@
         <v>54</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G59" s="2"/>
     </row>
@@ -15547,19 +15457,19 @@
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B61" s="1">
         <v>2100</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>65</v>
